--- a/Bases_de_Dados_(2022-2024)/Uruguay Segunda División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Uruguay Segunda División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="204">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -621,6 +621,12 @@
   <si>
     <t>['50', '57']</t>
   </si>
+  <si>
+    <t>['16', '19']</t>
+  </si>
+  <si>
+    <t>['16']</t>
+  </si>
 </sst>
 </file>
 
@@ -981,7 +987,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK114"/>
+  <dimension ref="A1:BK120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1315,7 +1321,7 @@
         <v>1.38</v>
       </c>
       <c r="AT2">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1697,7 +1703,7 @@
         <v>1.75</v>
       </c>
       <c r="AT4">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1885,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT5">
         <v>2.11</v>
@@ -2076,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AT6">
         <v>1.63</v>
@@ -2267,7 +2273,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT7">
         <v>1</v>
@@ -2458,10 +2464,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AT8">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2843,7 +2849,7 @@
         <v>0.75</v>
       </c>
       <c r="AT10">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3222,10 +3228,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT12">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3413,7 +3419,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT13">
         <v>1.25</v>
@@ -3795,7 +3801,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT15">
         <v>1.13</v>
@@ -4180,7 +4186,7 @@
         <v>1.75</v>
       </c>
       <c r="AT17">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AU17">
         <v>1.9</v>
@@ -4371,7 +4377,7 @@
         <v>0.38</v>
       </c>
       <c r="AT18">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4559,10 +4565,10 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT19">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU19">
         <v>0.97</v>
@@ -4750,7 +4756,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT20">
         <v>0.75</v>
@@ -4944,7 +4950,7 @@
         <v>0.75</v>
       </c>
       <c r="AT21">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU21">
         <v>1.68</v>
@@ -5135,7 +5141,7 @@
         <v>2.25</v>
       </c>
       <c r="AT22">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU22">
         <v>2.07</v>
@@ -5323,7 +5329,7 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AT23">
         <v>1.25</v>
@@ -5896,10 +5902,10 @@
         <v>1.5</v>
       </c>
       <c r="AS26">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AT26">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU26">
         <v>1.46</v>
@@ -6087,10 +6093,10 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT27">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU27">
         <v>1.65</v>
@@ -6281,7 +6287,7 @@
         <v>0.38</v>
       </c>
       <c r="AT28">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AU28">
         <v>1.13</v>
@@ -6660,7 +6666,7 @@
         <v>1</v>
       </c>
       <c r="AS30">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT30">
         <v>1.63</v>
@@ -6854,7 +6860,7 @@
         <v>0.75</v>
       </c>
       <c r="AT31">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU31">
         <v>1.41</v>
@@ -7045,7 +7051,7 @@
         <v>1.75</v>
       </c>
       <c r="AT32">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU32">
         <v>1.38</v>
@@ -7233,10 +7239,10 @@
         <v>1.5</v>
       </c>
       <c r="AS33">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT33">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU33">
         <v>1.07</v>
@@ -7615,7 +7621,7 @@
         <v>0.5</v>
       </c>
       <c r="AS35">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AT35">
         <v>0.75</v>
@@ -8379,10 +8385,10 @@
         <v>1.5</v>
       </c>
       <c r="AS39">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AT39">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU39">
         <v>1.78</v>
@@ -8573,7 +8579,7 @@
         <v>1.13</v>
       </c>
       <c r="AT40">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AU40">
         <v>1.02</v>
@@ -8761,7 +8767,7 @@
         <v>0</v>
       </c>
       <c r="AS41">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT41">
         <v>0.38</v>
@@ -8952,7 +8958,7 @@
         <v>1.5</v>
       </c>
       <c r="AS42">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT42">
         <v>1.13</v>
@@ -9337,7 +9343,7 @@
         <v>1.65</v>
       </c>
       <c r="AT44">
-        <v>2.35</v>
+        <v>2.22</v>
       </c>
       <c r="AU44">
         <v>1.56</v>
@@ -9716,10 +9722,10 @@
         <v>1.33</v>
       </c>
       <c r="AS46">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AT46">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU46">
         <v>1.68</v>
@@ -10098,7 +10104,7 @@
         <v>1</v>
       </c>
       <c r="AS48">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT48">
         <v>1.63</v>
@@ -10674,7 +10680,7 @@
         <v>1.13</v>
       </c>
       <c r="AT51">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AU51">
         <v>1.27</v>
@@ -10862,10 +10868,10 @@
         <v>1</v>
       </c>
       <c r="AS52">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT52">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU52">
         <v>1.21</v>
@@ -11056,7 +11062,7 @@
         <v>1.38</v>
       </c>
       <c r="AT53">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU53">
         <v>1</v>
@@ -11244,7 +11250,7 @@
         <v>2</v>
       </c>
       <c r="AS54">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT54">
         <v>2.13</v>
@@ -11438,7 +11444,7 @@
         <v>1.38</v>
       </c>
       <c r="AT55">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU55">
         <v>0</v>
@@ -11817,10 +11823,10 @@
         <v>1</v>
       </c>
       <c r="AS57">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AT57">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU57">
         <v>1.49</v>
@@ -12008,7 +12014,7 @@
         <v>2</v>
       </c>
       <c r="AS58">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT58">
         <v>1.25</v>
@@ -12393,7 +12399,7 @@
         <v>2.25</v>
       </c>
       <c r="AT60">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU60">
         <v>1.9</v>
@@ -12775,7 +12781,7 @@
         <v>2</v>
       </c>
       <c r="AT62">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AU62">
         <v>1.47</v>
@@ -12966,7 +12972,7 @@
         <v>0.38</v>
       </c>
       <c r="AT63">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU63">
         <v>1.05</v>
@@ -13154,7 +13160,7 @@
         <v>0.75</v>
       </c>
       <c r="AS64">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT64">
         <v>1.13</v>
@@ -13345,7 +13351,7 @@
         <v>1</v>
       </c>
       <c r="AS65">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AT65">
         <v>1</v>
@@ -13536,7 +13542,7 @@
         <v>1.75</v>
       </c>
       <c r="AS66">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT66">
         <v>2.13</v>
@@ -13730,7 +13736,7 @@
         <v>1.38</v>
       </c>
       <c r="AT67">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU67">
         <v>1.16</v>
@@ -14109,7 +14115,7 @@
         <v>1.5</v>
       </c>
       <c r="AS69">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT69">
         <v>1.63</v>
@@ -14300,10 +14306,10 @@
         <v>1.5</v>
       </c>
       <c r="AS70">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT70">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU70">
         <v>1.07</v>
@@ -14491,7 +14497,7 @@
         <v>1.8</v>
       </c>
       <c r="AS71">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AT71">
         <v>2.11</v>
@@ -14685,7 +14691,7 @@
         <v>1.38</v>
       </c>
       <c r="AT72">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU72">
         <v>0</v>
@@ -14876,7 +14882,7 @@
         <v>0.75</v>
       </c>
       <c r="AT73">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU73">
         <v>1.27</v>
@@ -15064,10 +15070,10 @@
         <v>0.8</v>
       </c>
       <c r="AS74">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT74">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU74">
         <v>1.79</v>
@@ -15255,7 +15261,7 @@
         <v>1</v>
       </c>
       <c r="AS75">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT75">
         <v>0.75</v>
@@ -15449,7 +15455,7 @@
         <v>1.75</v>
       </c>
       <c r="AT76">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AU76">
         <v>1.51</v>
@@ -15640,7 +15646,7 @@
         <v>2</v>
       </c>
       <c r="AT77">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU77">
         <v>1.34</v>
@@ -15828,7 +15834,7 @@
         <v>0.2</v>
       </c>
       <c r="AS78">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AT78">
         <v>0.38</v>
@@ -16210,7 +16216,7 @@
         <v>1.2</v>
       </c>
       <c r="AS80">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT80">
         <v>1.63</v>
@@ -16404,7 +16410,7 @@
         <v>0.38</v>
       </c>
       <c r="AT81">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU81">
         <v>1.05</v>
@@ -16783,7 +16789,7 @@
         <v>2</v>
       </c>
       <c r="AS83">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT83">
         <v>2.11</v>
@@ -17168,7 +17174,7 @@
         <v>1.13</v>
       </c>
       <c r="AT85">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU85">
         <v>1.26</v>
@@ -17356,7 +17362,7 @@
         <v>0.8</v>
       </c>
       <c r="AS86">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AT86">
         <v>1</v>
@@ -17547,10 +17553,10 @@
         <v>1.5</v>
       </c>
       <c r="AS87">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AT87">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AU87">
         <v>1.85</v>
@@ -17741,7 +17747,7 @@
         <v>1.75</v>
       </c>
       <c r="AT88">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU88">
         <v>1.5</v>
@@ -17929,7 +17935,7 @@
         <v>0.17</v>
       </c>
       <c r="AS89">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT89">
         <v>0.38</v>
@@ -18120,10 +18126,10 @@
         <v>2</v>
       </c>
       <c r="AS90">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT90">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU90">
         <v>1.44</v>
@@ -18311,10 +18317,10 @@
         <v>0.67</v>
       </c>
       <c r="AS91">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AT91">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU91">
         <v>1.13</v>
@@ -18884,7 +18890,7 @@
         <v>0.5</v>
       </c>
       <c r="AS94">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT94">
         <v>1.13</v>
@@ -19651,7 +19657,7 @@
         <v>2</v>
       </c>
       <c r="AT98">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU98">
         <v>1.38</v>
@@ -19842,7 +19848,7 @@
         <v>1.38</v>
       </c>
       <c r="AT99">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU99">
         <v>0</v>
@@ -20030,7 +20036,7 @@
         <v>1.17</v>
       </c>
       <c r="AS100">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT100">
         <v>1</v>
@@ -20221,10 +20227,10 @@
         <v>1.29</v>
       </c>
       <c r="AS101">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AT101">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU101">
         <v>1.76</v>
@@ -20412,7 +20418,7 @@
         <v>1.43</v>
       </c>
       <c r="AS102">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT102">
         <v>1.25</v>
@@ -20603,7 +20609,7 @@
         <v>0.86</v>
       </c>
       <c r="AS103">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AT103">
         <v>0.75</v>
@@ -20794,10 +20800,10 @@
         <v>1</v>
       </c>
       <c r="AS104">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT104">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU104">
         <v>1.06</v>
@@ -20988,7 +20994,7 @@
         <v>1.75</v>
       </c>
       <c r="AT105">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU105">
         <v>1.55</v>
@@ -21179,7 +21185,7 @@
         <v>2.25</v>
       </c>
       <c r="AT106">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU106">
         <v>1.95</v>
@@ -21367,10 +21373,10 @@
         <v>1.71</v>
       </c>
       <c r="AS107">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT107">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AU107">
         <v>1.71</v>
@@ -22322,7 +22328,7 @@
         <v>0.29</v>
       </c>
       <c r="AS112">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT112">
         <v>0.38</v>
@@ -22707,7 +22713,7 @@
         <v>1.38</v>
       </c>
       <c r="AT114">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU114">
         <v>0</v>
@@ -22759,6 +22765,1152 @@
       </c>
       <c r="BK114">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:63">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>6035619</v>
+      </c>
+      <c r="C115" t="s">
+        <v>63</v>
+      </c>
+      <c r="D115" t="s">
+        <v>64</v>
+      </c>
+      <c r="E115" s="2">
+        <v>45121.625</v>
+      </c>
+      <c r="F115">
+        <v>11</v>
+      </c>
+      <c r="G115" t="s">
+        <v>71</v>
+      </c>
+      <c r="H115" t="s">
+        <v>73</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>2</v>
+      </c>
+      <c r="K115">
+        <v>2</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="M115">
+        <v>2</v>
+      </c>
+      <c r="N115">
+        <v>2</v>
+      </c>
+      <c r="O115" t="s">
+        <v>82</v>
+      </c>
+      <c r="P115" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q115">
+        <v>8</v>
+      </c>
+      <c r="R115">
+        <v>0</v>
+      </c>
+      <c r="S115">
+        <v>8</v>
+      </c>
+      <c r="T115">
+        <v>1.95</v>
+      </c>
+      <c r="U115">
+        <v>2.2</v>
+      </c>
+      <c r="V115">
+        <v>7</v>
+      </c>
+      <c r="W115">
+        <v>1.39</v>
+      </c>
+      <c r="X115">
+        <v>2.77</v>
+      </c>
+      <c r="Y115">
+        <v>2.85</v>
+      </c>
+      <c r="Z115">
+        <v>1.37</v>
+      </c>
+      <c r="AA115">
+        <v>7</v>
+      </c>
+      <c r="AB115">
+        <v>1.06</v>
+      </c>
+      <c r="AC115">
+        <v>1.44</v>
+      </c>
+      <c r="AD115">
+        <v>3.95</v>
+      </c>
+      <c r="AE115">
+        <v>6.1</v>
+      </c>
+      <c r="AF115">
+        <v>1.04</v>
+      </c>
+      <c r="AG115">
+        <v>11</v>
+      </c>
+      <c r="AH115">
+        <v>1.28</v>
+      </c>
+      <c r="AI115">
+        <v>3.3</v>
+      </c>
+      <c r="AJ115">
+        <v>1.89</v>
+      </c>
+      <c r="AK115">
+        <v>1.72</v>
+      </c>
+      <c r="AL115">
+        <v>2.1</v>
+      </c>
+      <c r="AM115">
+        <v>1.64</v>
+      </c>
+      <c r="AN115">
+        <v>1.11</v>
+      </c>
+      <c r="AO115">
+        <v>1.2</v>
+      </c>
+      <c r="AP115">
+        <v>2.5</v>
+      </c>
+      <c r="AQ115">
+        <v>2.63</v>
+      </c>
+      <c r="AR115">
+        <v>0.88</v>
+      </c>
+      <c r="AS115">
+        <v>2.33</v>
+      </c>
+      <c r="AT115">
+        <v>1.11</v>
+      </c>
+      <c r="AU115">
+        <v>1.74</v>
+      </c>
+      <c r="AV115">
+        <v>1.33</v>
+      </c>
+      <c r="AW115">
+        <v>3.07</v>
+      </c>
+      <c r="AX115">
+        <v>0</v>
+      </c>
+      <c r="AY115">
+        <v>0</v>
+      </c>
+      <c r="AZ115">
+        <v>0</v>
+      </c>
+      <c r="BA115">
+        <v>0</v>
+      </c>
+      <c r="BB115">
+        <v>0</v>
+      </c>
+      <c r="BC115">
+        <v>0</v>
+      </c>
+      <c r="BD115">
+        <v>0</v>
+      </c>
+      <c r="BE115">
+        <v>0</v>
+      </c>
+      <c r="BF115">
+        <v>7</v>
+      </c>
+      <c r="BG115">
+        <v>6</v>
+      </c>
+      <c r="BH115">
+        <v>7</v>
+      </c>
+      <c r="BI115">
+        <v>2</v>
+      </c>
+      <c r="BJ115">
+        <v>14</v>
+      </c>
+      <c r="BK115">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:63">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>6035617</v>
+      </c>
+      <c r="C116" t="s">
+        <v>63</v>
+      </c>
+      <c r="D116" t="s">
+        <v>64</v>
+      </c>
+      <c r="E116" s="2">
+        <v>45122.41666666666</v>
+      </c>
+      <c r="F116">
+        <v>11</v>
+      </c>
+      <c r="G116" t="s">
+        <v>69</v>
+      </c>
+      <c r="H116" t="s">
+        <v>72</v>
+      </c>
+      <c r="I116">
+        <v>1</v>
+      </c>
+      <c r="J116">
+        <v>1</v>
+      </c>
+      <c r="K116">
+        <v>2</v>
+      </c>
+      <c r="L116">
+        <v>1</v>
+      </c>
+      <c r="M116">
+        <v>1</v>
+      </c>
+      <c r="N116">
+        <v>2</v>
+      </c>
+      <c r="O116" t="s">
+        <v>148</v>
+      </c>
+      <c r="P116" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q116">
+        <v>5</v>
+      </c>
+      <c r="R116">
+        <v>3</v>
+      </c>
+      <c r="S116">
+        <v>8</v>
+      </c>
+      <c r="T116">
+        <v>3.5</v>
+      </c>
+      <c r="U116">
+        <v>1.95</v>
+      </c>
+      <c r="V116">
+        <v>3.2</v>
+      </c>
+      <c r="W116">
+        <v>0</v>
+      </c>
+      <c r="X116">
+        <v>0</v>
+      </c>
+      <c r="Y116">
+        <v>0</v>
+      </c>
+      <c r="Z116">
+        <v>0</v>
+      </c>
+      <c r="AA116">
+        <v>0</v>
+      </c>
+      <c r="AB116">
+        <v>0</v>
+      </c>
+      <c r="AC116">
+        <v>3.41</v>
+      </c>
+      <c r="AD116">
+        <v>3.04</v>
+      </c>
+      <c r="AE116">
+        <v>1.93</v>
+      </c>
+      <c r="AF116">
+        <v>0</v>
+      </c>
+      <c r="AG116">
+        <v>0</v>
+      </c>
+      <c r="AH116">
+        <v>0</v>
+      </c>
+      <c r="AI116">
+        <v>0</v>
+      </c>
+      <c r="AJ116">
+        <v>2.36</v>
+      </c>
+      <c r="AK116">
+        <v>1.52</v>
+      </c>
+      <c r="AL116">
+        <v>0</v>
+      </c>
+      <c r="AM116">
+        <v>0</v>
+      </c>
+      <c r="AN116">
+        <v>0</v>
+      </c>
+      <c r="AO116">
+        <v>0</v>
+      </c>
+      <c r="AP116">
+        <v>0</v>
+      </c>
+      <c r="AQ116">
+        <v>0.88</v>
+      </c>
+      <c r="AR116">
+        <v>1.63</v>
+      </c>
+      <c r="AS116">
+        <v>0.89</v>
+      </c>
+      <c r="AT116">
+        <v>1.56</v>
+      </c>
+      <c r="AU116">
+        <v>1.16</v>
+      </c>
+      <c r="AV116">
+        <v>1.22</v>
+      </c>
+      <c r="AW116">
+        <v>2.38</v>
+      </c>
+      <c r="AX116">
+        <v>0</v>
+      </c>
+      <c r="AY116">
+        <v>0</v>
+      </c>
+      <c r="AZ116">
+        <v>0</v>
+      </c>
+      <c r="BA116">
+        <v>0</v>
+      </c>
+      <c r="BB116">
+        <v>0</v>
+      </c>
+      <c r="BC116">
+        <v>0</v>
+      </c>
+      <c r="BD116">
+        <v>0</v>
+      </c>
+      <c r="BE116">
+        <v>0</v>
+      </c>
+      <c r="BF116">
+        <v>5</v>
+      </c>
+      <c r="BG116">
+        <v>3</v>
+      </c>
+      <c r="BH116">
+        <v>8</v>
+      </c>
+      <c r="BI116">
+        <v>7</v>
+      </c>
+      <c r="BJ116">
+        <v>13</v>
+      </c>
+      <c r="BK116">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:63">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>6035616</v>
+      </c>
+      <c r="C117" t="s">
+        <v>63</v>
+      </c>
+      <c r="D117" t="s">
+        <v>64</v>
+      </c>
+      <c r="E117" s="2">
+        <v>45122.625</v>
+      </c>
+      <c r="F117">
+        <v>11</v>
+      </c>
+      <c r="G117" t="s">
+        <v>75</v>
+      </c>
+      <c r="H117" t="s">
+        <v>77</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>2</v>
+      </c>
+      <c r="M117">
+        <v>1</v>
+      </c>
+      <c r="N117">
+        <v>3</v>
+      </c>
+      <c r="O117" t="s">
+        <v>131</v>
+      </c>
+      <c r="P117" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q117">
+        <v>6</v>
+      </c>
+      <c r="R117">
+        <v>4</v>
+      </c>
+      <c r="S117">
+        <v>10</v>
+      </c>
+      <c r="T117">
+        <v>2.82</v>
+      </c>
+      <c r="U117">
+        <v>2.1</v>
+      </c>
+      <c r="V117">
+        <v>3.89</v>
+      </c>
+      <c r="W117">
+        <v>1.48</v>
+      </c>
+      <c r="X117">
+        <v>2.34</v>
+      </c>
+      <c r="Y117">
+        <v>3.18</v>
+      </c>
+      <c r="Z117">
+        <v>1.2</v>
+      </c>
+      <c r="AA117">
+        <v>7.9</v>
+      </c>
+      <c r="AB117">
+        <v>1.05</v>
+      </c>
+      <c r="AC117">
+        <v>2.15</v>
+      </c>
+      <c r="AD117">
+        <v>3</v>
+      </c>
+      <c r="AE117">
+        <v>3.25</v>
+      </c>
+      <c r="AF117">
+        <v>1.07</v>
+      </c>
+      <c r="AG117">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="AH117">
+        <v>1.37</v>
+      </c>
+      <c r="AI117">
+        <v>2.85</v>
+      </c>
+      <c r="AJ117">
+        <v>2.23</v>
+      </c>
+      <c r="AK117">
+        <v>1.58</v>
+      </c>
+      <c r="AL117">
+        <v>1.85</v>
+      </c>
+      <c r="AM117">
+        <v>1.85</v>
+      </c>
+      <c r="AN117">
+        <v>1.27</v>
+      </c>
+      <c r="AO117">
+        <v>1.27</v>
+      </c>
+      <c r="AP117">
+        <v>1.55</v>
+      </c>
+      <c r="AQ117">
+        <v>1.75</v>
+      </c>
+      <c r="AR117">
+        <v>1</v>
+      </c>
+      <c r="AS117">
+        <v>1.89</v>
+      </c>
+      <c r="AT117">
+        <v>0.89</v>
+      </c>
+      <c r="AU117">
+        <v>1.2</v>
+      </c>
+      <c r="AV117">
+        <v>1.36</v>
+      </c>
+      <c r="AW117">
+        <v>2.56</v>
+      </c>
+      <c r="AX117">
+        <v>0</v>
+      </c>
+      <c r="AY117">
+        <v>0</v>
+      </c>
+      <c r="AZ117">
+        <v>0</v>
+      </c>
+      <c r="BA117">
+        <v>0</v>
+      </c>
+      <c r="BB117">
+        <v>0</v>
+      </c>
+      <c r="BC117">
+        <v>2</v>
+      </c>
+      <c r="BD117">
+        <v>0</v>
+      </c>
+      <c r="BE117">
+        <v>0</v>
+      </c>
+      <c r="BF117">
+        <v>8</v>
+      </c>
+      <c r="BG117">
+        <v>4</v>
+      </c>
+      <c r="BH117">
+        <v>6</v>
+      </c>
+      <c r="BI117">
+        <v>3</v>
+      </c>
+      <c r="BJ117">
+        <v>14</v>
+      </c>
+      <c r="BK117">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:63">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>6035618</v>
+      </c>
+      <c r="C118" t="s">
+        <v>63</v>
+      </c>
+      <c r="D118" t="s">
+        <v>64</v>
+      </c>
+      <c r="E118" s="2">
+        <v>45122.625</v>
+      </c>
+      <c r="F118">
+        <v>11</v>
+      </c>
+      <c r="G118" t="s">
+        <v>76</v>
+      </c>
+      <c r="H118" t="s">
+        <v>78</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>1</v>
+      </c>
+      <c r="M118">
+        <v>2</v>
+      </c>
+      <c r="N118">
+        <v>3</v>
+      </c>
+      <c r="O118" t="s">
+        <v>112</v>
+      </c>
+      <c r="P118" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q118">
+        <v>3</v>
+      </c>
+      <c r="R118">
+        <v>1</v>
+      </c>
+      <c r="S118">
+        <v>4</v>
+      </c>
+      <c r="T118">
+        <v>2.42</v>
+      </c>
+      <c r="U118">
+        <v>2.04</v>
+      </c>
+      <c r="V118">
+        <v>5.35</v>
+      </c>
+      <c r="W118">
+        <v>1.57</v>
+      </c>
+      <c r="X118">
+        <v>2.21</v>
+      </c>
+      <c r="Y118">
+        <v>3.4</v>
+      </c>
+      <c r="Z118">
+        <v>1.28</v>
+      </c>
+      <c r="AA118">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AB118">
+        <v>1.03</v>
+      </c>
+      <c r="AC118">
+        <v>1.75</v>
+      </c>
+      <c r="AD118">
+        <v>3.1</v>
+      </c>
+      <c r="AE118">
+        <v>4.6</v>
+      </c>
+      <c r="AF118">
+        <v>1.09</v>
+      </c>
+      <c r="AG118">
+        <v>7.5</v>
+      </c>
+      <c r="AH118">
+        <v>1.5</v>
+      </c>
+      <c r="AI118">
+        <v>2.4</v>
+      </c>
+      <c r="AJ118">
+        <v>2.47</v>
+      </c>
+      <c r="AK118">
+        <v>1.48</v>
+      </c>
+      <c r="AL118">
+        <v>2.2</v>
+      </c>
+      <c r="AM118">
+        <v>1.6</v>
+      </c>
+      <c r="AN118">
+        <v>1.12</v>
+      </c>
+      <c r="AO118">
+        <v>1.27</v>
+      </c>
+      <c r="AP118">
+        <v>1.85</v>
+      </c>
+      <c r="AQ118">
+        <v>1.88</v>
+      </c>
+      <c r="AR118">
+        <v>1.13</v>
+      </c>
+      <c r="AS118">
+        <v>1.67</v>
+      </c>
+      <c r="AT118">
+        <v>1.33</v>
+      </c>
+      <c r="AU118">
+        <v>1.75</v>
+      </c>
+      <c r="AV118">
+        <v>1.07</v>
+      </c>
+      <c r="AW118">
+        <v>2.82</v>
+      </c>
+      <c r="AX118">
+        <v>0</v>
+      </c>
+      <c r="AY118">
+        <v>0</v>
+      </c>
+      <c r="AZ118">
+        <v>0</v>
+      </c>
+      <c r="BA118">
+        <v>0</v>
+      </c>
+      <c r="BB118">
+        <v>0</v>
+      </c>
+      <c r="BC118">
+        <v>0</v>
+      </c>
+      <c r="BD118">
+        <v>0</v>
+      </c>
+      <c r="BE118">
+        <v>0</v>
+      </c>
+      <c r="BF118">
+        <v>5</v>
+      </c>
+      <c r="BG118">
+        <v>5</v>
+      </c>
+      <c r="BH118">
+        <v>4</v>
+      </c>
+      <c r="BI118">
+        <v>3</v>
+      </c>
+      <c r="BJ118">
+        <v>9</v>
+      </c>
+      <c r="BK118">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:63">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>6035620</v>
+      </c>
+      <c r="C119" t="s">
+        <v>63</v>
+      </c>
+      <c r="D119" t="s">
+        <v>64</v>
+      </c>
+      <c r="E119" s="2">
+        <v>45122.625</v>
+      </c>
+      <c r="F119">
+        <v>11</v>
+      </c>
+      <c r="G119" t="s">
+        <v>68</v>
+      </c>
+      <c r="H119" t="s">
+        <v>67</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>1</v>
+      </c>
+      <c r="M119">
+        <v>0</v>
+      </c>
+      <c r="N119">
+        <v>1</v>
+      </c>
+      <c r="O119" t="s">
+        <v>112</v>
+      </c>
+      <c r="P119" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q119">
+        <v>7</v>
+      </c>
+      <c r="R119">
+        <v>4</v>
+      </c>
+      <c r="S119">
+        <v>11</v>
+      </c>
+      <c r="T119">
+        <v>3.02</v>
+      </c>
+      <c r="U119">
+        <v>2</v>
+      </c>
+      <c r="V119">
+        <v>3.89</v>
+      </c>
+      <c r="W119">
+        <v>1.56</v>
+      </c>
+      <c r="X119">
+        <v>2.22</v>
+      </c>
+      <c r="Y119">
+        <v>3.3</v>
+      </c>
+      <c r="Z119">
+        <v>1.28</v>
+      </c>
+      <c r="AA119">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AB119">
+        <v>1.03</v>
+      </c>
+      <c r="AC119">
+        <v>2.2</v>
+      </c>
+      <c r="AD119">
+        <v>2.9</v>
+      </c>
+      <c r="AE119">
+        <v>3.25</v>
+      </c>
+      <c r="AF119">
+        <v>1.09</v>
+      </c>
+      <c r="AG119">
+        <v>7.6</v>
+      </c>
+      <c r="AH119">
+        <v>1.45</v>
+      </c>
+      <c r="AI119">
+        <v>2.55</v>
+      </c>
+      <c r="AJ119">
+        <v>2.41</v>
+      </c>
+      <c r="AK119">
+        <v>1.5</v>
+      </c>
+      <c r="AL119">
+        <v>2</v>
+      </c>
+      <c r="AM119">
+        <v>1.72</v>
+      </c>
+      <c r="AN119">
+        <v>1.27</v>
+      </c>
+      <c r="AO119">
+        <v>1.3</v>
+      </c>
+      <c r="AP119">
+        <v>1.52</v>
+      </c>
+      <c r="AQ119">
+        <v>1.5</v>
+      </c>
+      <c r="AR119">
+        <v>1.25</v>
+      </c>
+      <c r="AS119">
+        <v>1.67</v>
+      </c>
+      <c r="AT119">
+        <v>1.11</v>
+      </c>
+      <c r="AU119">
+        <v>1.41</v>
+      </c>
+      <c r="AV119">
+        <v>1.77</v>
+      </c>
+      <c r="AW119">
+        <v>3.18</v>
+      </c>
+      <c r="AX119">
+        <v>0</v>
+      </c>
+      <c r="AY119">
+        <v>0</v>
+      </c>
+      <c r="AZ119">
+        <v>0</v>
+      </c>
+      <c r="BA119">
+        <v>0</v>
+      </c>
+      <c r="BB119">
+        <v>0</v>
+      </c>
+      <c r="BC119">
+        <v>0</v>
+      </c>
+      <c r="BD119">
+        <v>0</v>
+      </c>
+      <c r="BE119">
+        <v>0</v>
+      </c>
+      <c r="BF119">
+        <v>5</v>
+      </c>
+      <c r="BG119">
+        <v>5</v>
+      </c>
+      <c r="BH119">
+        <v>5</v>
+      </c>
+      <c r="BI119">
+        <v>5</v>
+      </c>
+      <c r="BJ119">
+        <v>10</v>
+      </c>
+      <c r="BK119">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:63">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>6035621</v>
+      </c>
+      <c r="C120" t="s">
+        <v>63</v>
+      </c>
+      <c r="D120" t="s">
+        <v>64</v>
+      </c>
+      <c r="E120" s="2">
+        <v>45122.625</v>
+      </c>
+      <c r="F120">
+        <v>11</v>
+      </c>
+      <c r="G120" t="s">
+        <v>70</v>
+      </c>
+      <c r="H120" t="s">
+        <v>65</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>2</v>
+      </c>
+      <c r="M120">
+        <v>1</v>
+      </c>
+      <c r="N120">
+        <v>3</v>
+      </c>
+      <c r="O120" t="s">
+        <v>131</v>
+      </c>
+      <c r="P120" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q120">
+        <v>4</v>
+      </c>
+      <c r="R120">
+        <v>4</v>
+      </c>
+      <c r="S120">
+        <v>8</v>
+      </c>
+      <c r="T120">
+        <v>4.33</v>
+      </c>
+      <c r="U120">
+        <v>1.91</v>
+      </c>
+      <c r="V120">
+        <v>2.88</v>
+      </c>
+      <c r="W120">
+        <v>1.53</v>
+      </c>
+      <c r="X120">
+        <v>2.3</v>
+      </c>
+      <c r="Y120">
+        <v>3.5</v>
+      </c>
+      <c r="Z120">
+        <v>1.27</v>
+      </c>
+      <c r="AA120">
+        <v>8.9</v>
+      </c>
+      <c r="AB120">
+        <v>1.03</v>
+      </c>
+      <c r="AC120">
+        <v>3.6</v>
+      </c>
+      <c r="AD120">
+        <v>3</v>
+      </c>
+      <c r="AE120">
+        <v>2.05</v>
+      </c>
+      <c r="AF120">
+        <v>1.06</v>
+      </c>
+      <c r="AG120">
+        <v>7.1</v>
+      </c>
+      <c r="AH120">
+        <v>1.46</v>
+      </c>
+      <c r="AI120">
+        <v>2.55</v>
+      </c>
+      <c r="AJ120">
+        <v>2.41</v>
+      </c>
+      <c r="AK120">
+        <v>1.5</v>
+      </c>
+      <c r="AL120">
+        <v>2.15</v>
+      </c>
+      <c r="AM120">
+        <v>1.62</v>
+      </c>
+      <c r="AN120">
+        <v>1.83</v>
+      </c>
+      <c r="AO120">
+        <v>1.33</v>
+      </c>
+      <c r="AP120">
+        <v>1.22</v>
+      </c>
+      <c r="AQ120">
+        <v>0.75</v>
+      </c>
+      <c r="AR120">
+        <v>1.88</v>
+      </c>
+      <c r="AS120">
+        <v>1</v>
+      </c>
+      <c r="AT120">
+        <v>1.67</v>
+      </c>
+      <c r="AU120">
+        <v>1.06</v>
+      </c>
+      <c r="AV120">
+        <v>1.34</v>
+      </c>
+      <c r="AW120">
+        <v>2.4</v>
+      </c>
+      <c r="AX120">
+        <v>0</v>
+      </c>
+      <c r="AY120">
+        <v>0</v>
+      </c>
+      <c r="AZ120">
+        <v>0</v>
+      </c>
+      <c r="BA120">
+        <v>0</v>
+      </c>
+      <c r="BB120">
+        <v>0</v>
+      </c>
+      <c r="BC120">
+        <v>0</v>
+      </c>
+      <c r="BD120">
+        <v>0</v>
+      </c>
+      <c r="BE120">
+        <v>0</v>
+      </c>
+      <c r="BF120">
+        <v>9</v>
+      </c>
+      <c r="BG120">
+        <v>5</v>
+      </c>
+      <c r="BH120">
+        <v>5</v>
+      </c>
+      <c r="BI120">
+        <v>4</v>
+      </c>
+      <c r="BJ120">
+        <v>14</v>
+      </c>
+      <c r="BK120">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Uruguay Segunda División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Uruguay Segunda División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="209">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -463,6 +463,21 @@
     <t>['38']</t>
   </si>
   <si>
+    <t>['49', '71']</t>
+  </si>
+  <si>
+    <t>['65']</t>
+  </si>
+  <si>
+    <t>['87']</t>
+  </si>
+  <si>
+    <t>['63', '71']</t>
+  </si>
+  <si>
+    <t>['16']</t>
+  </si>
+  <si>
     <t>['90+4']</t>
   </si>
   <si>
@@ -625,7 +640,7 @@
     <t>['16', '19']</t>
   </si>
   <si>
-    <t>['16']</t>
+    <t>['44', '59']</t>
   </si>
 </sst>
 </file>
@@ -987,7 +1002,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK120"/>
+  <dimension ref="A1:BK121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2186,7 +2201,7 @@
         <v>84</v>
       </c>
       <c r="P7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2568,7 +2583,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -2759,7 +2774,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -2950,7 +2965,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -3037,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT11">
         <v>0.38</v>
@@ -3141,7 +3156,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="Q12">
         <v>12</v>
@@ -3422,7 +3437,7 @@
         <v>1.67</v>
       </c>
       <c r="AT13">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3714,7 +3729,7 @@
         <v>90</v>
       </c>
       <c r="P15" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -3905,7 +3920,7 @@
         <v>82</v>
       </c>
       <c r="P16" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="Q16">
         <v>-1</v>
@@ -4096,7 +4111,7 @@
         <v>91</v>
       </c>
       <c r="P17" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="Q17">
         <v>6</v>
@@ -4478,7 +4493,7 @@
         <v>82</v>
       </c>
       <c r="P19" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="Q19">
         <v>10</v>
@@ -4860,7 +4875,7 @@
         <v>82</v>
       </c>
       <c r="P21" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="Q21">
         <v>7</v>
@@ -5051,7 +5066,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Q22">
         <v>8</v>
@@ -5138,7 +5153,7 @@
         <v>3</v>
       </c>
       <c r="AS22">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT22">
         <v>0.89</v>
@@ -5242,7 +5257,7 @@
         <v>82</v>
       </c>
       <c r="P23" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5332,7 +5347,7 @@
         <v>0.89</v>
       </c>
       <c r="AT23">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU23">
         <v>1.05</v>
@@ -5433,7 +5448,7 @@
         <v>93</v>
       </c>
       <c r="P24" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -6006,7 +6021,7 @@
         <v>96</v>
       </c>
       <c r="P27" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6197,7 +6212,7 @@
         <v>82</v>
       </c>
       <c r="P28" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="Q28">
         <v>2</v>
@@ -6388,7 +6403,7 @@
         <v>97</v>
       </c>
       <c r="P29" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="Q29">
         <v>-1</v>
@@ -6579,7 +6594,7 @@
         <v>98</v>
       </c>
       <c r="P30" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="Q30">
         <v>5</v>
@@ -6770,7 +6785,7 @@
         <v>99</v>
       </c>
       <c r="P31" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="Q31">
         <v>9</v>
@@ -6961,7 +6976,7 @@
         <v>100</v>
       </c>
       <c r="P32" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7152,7 +7167,7 @@
         <v>101</v>
       </c>
       <c r="P33" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="Q33">
         <v>7</v>
@@ -7725,7 +7740,7 @@
         <v>103</v>
       </c>
       <c r="P36" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="Q36">
         <v>5</v>
@@ -7812,7 +7827,7 @@
         <v>2</v>
       </c>
       <c r="AS36">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT36">
         <v>1</v>
@@ -7916,7 +7931,7 @@
         <v>104</v>
       </c>
       <c r="P37" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="Q37">
         <v>2</v>
@@ -8680,7 +8695,7 @@
         <v>106</v>
       </c>
       <c r="P41" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -9062,7 +9077,7 @@
         <v>108</v>
       </c>
       <c r="P43" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="Q43">
         <v>-1</v>
@@ -9152,7 +9167,7 @@
         <v>1.38</v>
       </c>
       <c r="AT43">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU43">
         <v>0</v>
@@ -9253,7 +9268,7 @@
         <v>109</v>
       </c>
       <c r="P44" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9340,7 +9355,7 @@
         <v>2.33</v>
       </c>
       <c r="AS44">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AT44">
         <v>2.22</v>
@@ -9635,7 +9650,7 @@
         <v>111</v>
       </c>
       <c r="P46" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -10017,7 +10032,7 @@
         <v>113</v>
       </c>
       <c r="P48" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="Q48">
         <v>7</v>
@@ -10208,7 +10223,7 @@
         <v>114</v>
       </c>
       <c r="P49" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="Q49">
         <v>8</v>
@@ -10590,7 +10605,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Q51">
         <v>3</v>
@@ -10781,7 +10796,7 @@
         <v>117</v>
       </c>
       <c r="P52" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Q52">
         <v>9</v>
@@ -10972,7 +10987,7 @@
         <v>118</v>
       </c>
       <c r="P53" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -11163,7 +11178,7 @@
         <v>119</v>
       </c>
       <c r="P54" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11545,7 +11560,7 @@
         <v>120</v>
       </c>
       <c r="P56" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q56">
         <v>11</v>
@@ -11632,7 +11647,7 @@
         <v>2</v>
       </c>
       <c r="AS56">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT56">
         <v>2.11</v>
@@ -11736,7 +11751,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12017,7 +12032,7 @@
         <v>1.89</v>
       </c>
       <c r="AT58">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU58">
         <v>1.12</v>
@@ -12309,7 +12324,7 @@
         <v>123</v>
       </c>
       <c r="P60" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="Q60">
         <v>5</v>
@@ -12396,7 +12411,7 @@
         <v>1</v>
       </c>
       <c r="AS60">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT60">
         <v>0.89</v>
@@ -12500,7 +12515,7 @@
         <v>124</v>
       </c>
       <c r="P61" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="Q61">
         <v>12</v>
@@ -13455,7 +13470,7 @@
         <v>82</v>
       </c>
       <c r="P66" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -13646,7 +13661,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q67">
         <v>8</v>
@@ -13927,7 +13942,7 @@
         <v>1.13</v>
       </c>
       <c r="AT68">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU68">
         <v>1.32</v>
@@ -14792,7 +14807,7 @@
         <v>82</v>
       </c>
       <c r="P73" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Q73">
         <v>6</v>
@@ -15556,7 +15571,7 @@
         <v>134</v>
       </c>
       <c r="P77" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q77">
         <v>2</v>
@@ -16025,7 +16040,7 @@
         <v>0.6</v>
       </c>
       <c r="AS79">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT79">
         <v>1.13</v>
@@ -16129,7 +16144,7 @@
         <v>82</v>
       </c>
       <c r="P80" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16702,7 +16717,7 @@
         <v>137</v>
       </c>
       <c r="P83" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q83">
         <v>3</v>
@@ -16983,7 +16998,7 @@
         <v>1.38</v>
       </c>
       <c r="AT84">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU84">
         <v>0</v>
@@ -17275,7 +17290,7 @@
         <v>82</v>
       </c>
       <c r="P86" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -17466,7 +17481,7 @@
         <v>82</v>
       </c>
       <c r="P87" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="Q87">
         <v>8</v>
@@ -17657,7 +17672,7 @@
         <v>82</v>
       </c>
       <c r="P88" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Q88">
         <v>6</v>
@@ -18230,7 +18245,7 @@
         <v>139</v>
       </c>
       <c r="P91" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q91">
         <v>2</v>
@@ -18511,7 +18526,7 @@
         <v>0.75</v>
       </c>
       <c r="AT92">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU92">
         <v>1.25</v>
@@ -18612,7 +18627,7 @@
         <v>140</v>
       </c>
       <c r="P93" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -18699,7 +18714,7 @@
         <v>0.83</v>
       </c>
       <c r="AS93">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT93">
         <v>0.75</v>
@@ -18803,7 +18818,7 @@
         <v>82</v>
       </c>
       <c r="P94" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -18994,7 +19009,7 @@
         <v>82</v>
       </c>
       <c r="P95" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -19376,7 +19391,7 @@
         <v>141</v>
       </c>
       <c r="P97" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -20140,7 +20155,7 @@
         <v>143</v>
       </c>
       <c r="P101" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Q101">
         <v>11</v>
@@ -20421,7 +20436,7 @@
         <v>1.67</v>
       </c>
       <c r="AT102">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU102">
         <v>1.44</v>
@@ -20522,7 +20537,7 @@
         <v>145</v>
       </c>
       <c r="P103" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q103">
         <v>2</v>
@@ -20713,7 +20728,7 @@
         <v>146</v>
       </c>
       <c r="P104" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q104">
         <v>1</v>
@@ -20904,7 +20919,7 @@
         <v>147</v>
       </c>
       <c r="P105" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -21182,7 +21197,7 @@
         <v>1.71</v>
       </c>
       <c r="AS106">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT106">
         <v>1.56</v>
@@ -21477,7 +21492,7 @@
         <v>148</v>
       </c>
       <c r="P108" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q108">
         <v>1</v>
@@ -21668,7 +21683,7 @@
         <v>82</v>
       </c>
       <c r="P109" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="Q109">
         <v>1</v>
@@ -21859,7 +21874,7 @@
         <v>82</v>
       </c>
       <c r="P110" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q110">
         <v>10</v>
@@ -22814,7 +22829,7 @@
         <v>82</v>
       </c>
       <c r="P115" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q115">
         <v>8</v>
@@ -23005,7 +23020,7 @@
         <v>148</v>
       </c>
       <c r="P116" t="s">
-        <v>203</v>
+        <v>153</v>
       </c>
       <c r="Q116">
         <v>5</v>
@@ -23178,10 +23193,10 @@
         <v>0</v>
       </c>
       <c r="J117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L117">
         <v>2</v>
@@ -23193,10 +23208,10 @@
         <v>3</v>
       </c>
       <c r="O117" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="P117" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="Q117">
         <v>6</v>
@@ -23369,10 +23384,10 @@
         <v>0</v>
       </c>
       <c r="J118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L118">
         <v>1</v>
@@ -23384,10 +23399,10 @@
         <v>3</v>
       </c>
       <c r="O118" t="s">
-        <v>112</v>
+        <v>150</v>
       </c>
       <c r="P118" t="s">
-        <v>131</v>
+        <v>208</v>
       </c>
       <c r="Q118">
         <v>3</v>
@@ -23575,7 +23590,7 @@
         <v>1</v>
       </c>
       <c r="O119" t="s">
-        <v>112</v>
+        <v>151</v>
       </c>
       <c r="P119" t="s">
         <v>82</v>
@@ -23766,10 +23781,10 @@
         <v>3</v>
       </c>
       <c r="O120" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="P120" t="s">
-        <v>112</v>
+        <v>199</v>
       </c>
       <c r="Q120">
         <v>4</v>
@@ -23911,6 +23926,197 @@
       </c>
       <c r="BK120">
         <v>9</v>
+      </c>
+    </row>
+    <row r="121" spans="1:63">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>6035622</v>
+      </c>
+      <c r="C121" t="s">
+        <v>63</v>
+      </c>
+      <c r="D121" t="s">
+        <v>64</v>
+      </c>
+      <c r="E121" s="2">
+        <v>45123.85416666666</v>
+      </c>
+      <c r="F121">
+        <v>11</v>
+      </c>
+      <c r="G121" t="s">
+        <v>74</v>
+      </c>
+      <c r="H121" t="s">
+        <v>66</v>
+      </c>
+      <c r="I121">
+        <v>1</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>1</v>
+      </c>
+      <c r="L121">
+        <v>1</v>
+      </c>
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121">
+        <v>1</v>
+      </c>
+      <c r="O121" t="s">
+        <v>153</v>
+      </c>
+      <c r="P121" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q121">
+        <v>10</v>
+      </c>
+      <c r="R121">
+        <v>0</v>
+      </c>
+      <c r="S121">
+        <v>10</v>
+      </c>
+      <c r="T121">
+        <v>2.3</v>
+      </c>
+      <c r="U121">
+        <v>2</v>
+      </c>
+      <c r="V121">
+        <v>5.5</v>
+      </c>
+      <c r="W121">
+        <v>0</v>
+      </c>
+      <c r="X121">
+        <v>0</v>
+      </c>
+      <c r="Y121">
+        <v>0</v>
+      </c>
+      <c r="Z121">
+        <v>0</v>
+      </c>
+      <c r="AA121">
+        <v>0</v>
+      </c>
+      <c r="AB121">
+        <v>0</v>
+      </c>
+      <c r="AC121">
+        <v>1.6</v>
+      </c>
+      <c r="AD121">
+        <v>3.5</v>
+      </c>
+      <c r="AE121">
+        <v>5</v>
+      </c>
+      <c r="AF121">
+        <v>0</v>
+      </c>
+      <c r="AG121">
+        <v>0</v>
+      </c>
+      <c r="AH121">
+        <v>0</v>
+      </c>
+      <c r="AI121">
+        <v>0</v>
+      </c>
+      <c r="AJ121">
+        <v>2.1</v>
+      </c>
+      <c r="AK121">
+        <v>1.65</v>
+      </c>
+      <c r="AL121">
+        <v>0</v>
+      </c>
+      <c r="AM121">
+        <v>0</v>
+      </c>
+      <c r="AN121">
+        <v>0</v>
+      </c>
+      <c r="AO121">
+        <v>0</v>
+      </c>
+      <c r="AP121">
+        <v>0</v>
+      </c>
+      <c r="AQ121">
+        <v>2.25</v>
+      </c>
+      <c r="AR121">
+        <v>1.25</v>
+      </c>
+      <c r="AS121">
+        <v>2.33</v>
+      </c>
+      <c r="AT121">
+        <v>1.11</v>
+      </c>
+      <c r="AU121">
+        <v>1.87</v>
+      </c>
+      <c r="AV121">
+        <v>1.48</v>
+      </c>
+      <c r="AW121">
+        <v>3.35</v>
+      </c>
+      <c r="AX121">
+        <v>0</v>
+      </c>
+      <c r="AY121">
+        <v>0</v>
+      </c>
+      <c r="AZ121">
+        <v>0</v>
+      </c>
+      <c r="BA121">
+        <v>0</v>
+      </c>
+      <c r="BB121">
+        <v>0</v>
+      </c>
+      <c r="BC121">
+        <v>0</v>
+      </c>
+      <c r="BD121">
+        <v>0</v>
+      </c>
+      <c r="BE121">
+        <v>0</v>
+      </c>
+      <c r="BF121">
+        <v>13</v>
+      </c>
+      <c r="BG121">
+        <v>0</v>
+      </c>
+      <c r="BH121">
+        <v>7</v>
+      </c>
+      <c r="BI121">
+        <v>2</v>
+      </c>
+      <c r="BJ121">
+        <v>20</v>
+      </c>
+      <c r="BK121">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Uruguay Segunda División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Uruguay Segunda División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="213">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -478,6 +478,15 @@
     <t>['16']</t>
   </si>
   <si>
+    <t>['43', '57', '88']</t>
+  </si>
+  <si>
+    <t>['7', '83', '88']</t>
+  </si>
+  <si>
+    <t>['31', '9005']</t>
+  </si>
+  <si>
     <t>['90+4']</t>
   </si>
   <si>
@@ -641,6 +650,9 @@
   </si>
   <si>
     <t>['44', '59']</t>
+  </si>
+  <si>
+    <t>['48']</t>
   </si>
 </sst>
 </file>
@@ -1002,7 +1014,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK121"/>
+  <dimension ref="A1:BK128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1333,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT2">
         <v>1.11</v>
@@ -1524,10 +1536,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT3">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1715,7 +1727,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT4">
         <v>1.56</v>
@@ -1906,10 +1918,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT5">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2100,7 +2112,7 @@
         <v>0.89</v>
       </c>
       <c r="AT6">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2201,7 +2213,7 @@
         <v>84</v>
       </c>
       <c r="P7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2291,7 +2303,7 @@
         <v>1</v>
       </c>
       <c r="AT7">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2583,7 +2595,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -2670,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT9">
         <v>2.13</v>
@@ -2774,7 +2786,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -2861,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AT10">
         <v>1.11</v>
@@ -2965,7 +2977,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -3055,7 +3067,7 @@
         <v>2.33</v>
       </c>
       <c r="AT11">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3156,7 +3168,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q12">
         <v>12</v>
@@ -3246,7 +3258,7 @@
         <v>1.89</v>
       </c>
       <c r="AT12">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3625,10 +3637,10 @@
         <v>1</v>
       </c>
       <c r="AS14">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT14">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU14">
         <v>1.79</v>
@@ -3729,7 +3741,7 @@
         <v>90</v>
       </c>
       <c r="P15" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -3819,7 +3831,7 @@
         <v>1</v>
       </c>
       <c r="AT15">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU15">
         <v>0.92</v>
@@ -3920,7 +3932,7 @@
         <v>82</v>
       </c>
       <c r="P16" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q16">
         <v>-1</v>
@@ -4010,7 +4022,7 @@
         <v>1.38</v>
       </c>
       <c r="AT16">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4111,7 +4123,7 @@
         <v>91</v>
       </c>
       <c r="P17" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q17">
         <v>6</v>
@@ -4198,7 +4210,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT17">
         <v>1.67</v>
@@ -4389,7 +4401,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AT18">
         <v>1.56</v>
@@ -4493,7 +4505,7 @@
         <v>82</v>
       </c>
       <c r="P19" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q19">
         <v>10</v>
@@ -4580,7 +4592,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT19">
         <v>1.11</v>
@@ -4774,7 +4786,7 @@
         <v>1.67</v>
       </c>
       <c r="AT20">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU20">
         <v>1.18</v>
@@ -4875,7 +4887,7 @@
         <v>82</v>
       </c>
       <c r="P21" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q21">
         <v>7</v>
@@ -4962,7 +4974,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AT21">
         <v>1.33</v>
@@ -5066,7 +5078,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q22">
         <v>8</v>
@@ -5156,7 +5168,7 @@
         <v>2.33</v>
       </c>
       <c r="AT22">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU22">
         <v>2.07</v>
@@ -5257,7 +5269,7 @@
         <v>82</v>
       </c>
       <c r="P23" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5448,7 +5460,7 @@
         <v>93</v>
       </c>
       <c r="P24" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -5535,7 +5547,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT24">
         <v>2.13</v>
@@ -5726,10 +5738,10 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT25">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU25">
         <v>1.37</v>
@@ -6021,7 +6033,7 @@
         <v>96</v>
       </c>
       <c r="P27" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6108,7 +6120,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT27">
         <v>1.11</v>
@@ -6212,7 +6224,7 @@
         <v>82</v>
       </c>
       <c r="P28" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q28">
         <v>2</v>
@@ -6299,7 +6311,7 @@
         <v>3</v>
       </c>
       <c r="AS28">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AT28">
         <v>1.67</v>
@@ -6403,7 +6415,7 @@
         <v>97</v>
       </c>
       <c r="P29" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q29">
         <v>-1</v>
@@ -6493,7 +6505,7 @@
         <v>1.38</v>
       </c>
       <c r="AT29">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU29">
         <v>0</v>
@@ -6594,7 +6606,7 @@
         <v>98</v>
       </c>
       <c r="P30" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q30">
         <v>5</v>
@@ -6684,7 +6696,7 @@
         <v>1.89</v>
       </c>
       <c r="AT30">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU30">
         <v>1.01</v>
@@ -6785,7 +6797,7 @@
         <v>99</v>
       </c>
       <c r="P31" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q31">
         <v>9</v>
@@ -6872,7 +6884,7 @@
         <v>1.5</v>
       </c>
       <c r="AS31">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AT31">
         <v>1.56</v>
@@ -6976,7 +6988,7 @@
         <v>100</v>
       </c>
       <c r="P32" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7063,7 +7075,7 @@
         <v>1.5</v>
       </c>
       <c r="AS32">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT32">
         <v>1.33</v>
@@ -7167,7 +7179,7 @@
         <v>101</v>
       </c>
       <c r="P33" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q33">
         <v>7</v>
@@ -7257,7 +7269,7 @@
         <v>1</v>
       </c>
       <c r="AT33">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU33">
         <v>1.07</v>
@@ -7445,10 +7457,10 @@
         <v>3</v>
       </c>
       <c r="AS34">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT34">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AU34">
         <v>1.03</v>
@@ -7639,7 +7651,7 @@
         <v>0.89</v>
       </c>
       <c r="AT35">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU35">
         <v>1.73</v>
@@ -7740,7 +7752,7 @@
         <v>103</v>
       </c>
       <c r="P36" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q36">
         <v>5</v>
@@ -7830,7 +7842,7 @@
         <v>2.33</v>
       </c>
       <c r="AT36">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU36">
         <v>2.08</v>
@@ -7931,7 +7943,7 @@
         <v>104</v>
       </c>
       <c r="P37" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q37">
         <v>2</v>
@@ -8018,10 +8030,10 @@
         <v>2</v>
       </c>
       <c r="AS37">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT37">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AU37">
         <v>1.31</v>
@@ -8209,7 +8221,7 @@
         <v>1.5</v>
       </c>
       <c r="AS38">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AT38">
         <v>2.13</v>
@@ -8591,7 +8603,7 @@
         <v>3</v>
       </c>
       <c r="AS40">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT40">
         <v>1.67</v>
@@ -8695,7 +8707,7 @@
         <v>106</v>
       </c>
       <c r="P41" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -8785,7 +8797,7 @@
         <v>1.89</v>
       </c>
       <c r="AT41">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU41">
         <v>1.14</v>
@@ -8976,7 +8988,7 @@
         <v>1.67</v>
       </c>
       <c r="AT42">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU42">
         <v>1.36</v>
@@ -9077,7 +9089,7 @@
         <v>108</v>
       </c>
       <c r="P43" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q43">
         <v>-1</v>
@@ -9268,7 +9280,7 @@
         <v>109</v>
       </c>
       <c r="P44" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9355,10 +9367,10 @@
         <v>2.33</v>
       </c>
       <c r="AS44">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT44">
-        <v>2.22</v>
+        <v>2.11</v>
       </c>
       <c r="AU44">
         <v>1.56</v>
@@ -9546,10 +9558,10 @@
         <v>0</v>
       </c>
       <c r="AS45">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT45">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU45">
         <v>1.48</v>
@@ -9650,7 +9662,7 @@
         <v>111</v>
       </c>
       <c r="P46" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -9740,7 +9752,7 @@
         <v>2.33</v>
       </c>
       <c r="AT46">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU46">
         <v>1.68</v>
@@ -9928,10 +9940,10 @@
         <v>0.33</v>
       </c>
       <c r="AS47">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AT47">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU47">
         <v>1.05</v>
@@ -10032,7 +10044,7 @@
         <v>113</v>
       </c>
       <c r="P48" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q48">
         <v>7</v>
@@ -10119,10 +10131,10 @@
         <v>1</v>
       </c>
       <c r="AS48">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT48">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU48">
         <v>1.55</v>
@@ -10223,7 +10235,7 @@
         <v>114</v>
       </c>
       <c r="P49" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q49">
         <v>8</v>
@@ -10310,10 +10322,10 @@
         <v>1.33</v>
       </c>
       <c r="AS49">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT49">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU49">
         <v>1.39</v>
@@ -10501,10 +10513,10 @@
         <v>1</v>
       </c>
       <c r="AS50">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AT50">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU50">
         <v>1.24</v>
@@ -10605,7 +10617,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q51">
         <v>3</v>
@@ -10692,7 +10704,7 @@
         <v>2</v>
       </c>
       <c r="AS51">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT51">
         <v>1.67</v>
@@ -10796,7 +10808,7 @@
         <v>117</v>
       </c>
       <c r="P52" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q52">
         <v>9</v>
@@ -10987,7 +10999,7 @@
         <v>118</v>
       </c>
       <c r="P53" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -11074,7 +11086,7 @@
         <v>1.33</v>
       </c>
       <c r="AS53">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT53">
         <v>1.33</v>
@@ -11178,7 +11190,7 @@
         <v>119</v>
       </c>
       <c r="P54" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11560,7 +11572,7 @@
         <v>120</v>
       </c>
       <c r="P56" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q56">
         <v>11</v>
@@ -11650,7 +11662,7 @@
         <v>2.33</v>
       </c>
       <c r="AT56">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AU56">
         <v>2.01</v>
@@ -11751,7 +11763,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12220,10 +12232,10 @@
         <v>0</v>
       </c>
       <c r="AS59">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT59">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU59">
         <v>1.46</v>
@@ -12324,7 +12336,7 @@
         <v>123</v>
       </c>
       <c r="P60" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q60">
         <v>5</v>
@@ -12414,7 +12426,7 @@
         <v>2.33</v>
       </c>
       <c r="AT60">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU60">
         <v>1.9</v>
@@ -12515,7 +12527,7 @@
         <v>124</v>
       </c>
       <c r="P61" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q61">
         <v>12</v>
@@ -12602,10 +12614,10 @@
         <v>0.5</v>
       </c>
       <c r="AS61">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AT61">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU61">
         <v>1.3</v>
@@ -12793,7 +12805,7 @@
         <v>2.25</v>
       </c>
       <c r="AS62">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT62">
         <v>1.67</v>
@@ -12984,7 +12996,7 @@
         <v>1.5</v>
       </c>
       <c r="AS63">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AT63">
         <v>1.56</v>
@@ -13175,10 +13187,10 @@
         <v>0.75</v>
       </c>
       <c r="AS64">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT64">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU64">
         <v>1.45</v>
@@ -13369,7 +13381,7 @@
         <v>2.33</v>
       </c>
       <c r="AT65">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU65">
         <v>1.89</v>
@@ -13470,7 +13482,7 @@
         <v>82</v>
       </c>
       <c r="P66" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -13661,7 +13673,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q67">
         <v>8</v>
@@ -13748,7 +13760,7 @@
         <v>1.5</v>
       </c>
       <c r="AS67">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT67">
         <v>1.11</v>
@@ -13939,7 +13951,7 @@
         <v>1.5</v>
       </c>
       <c r="AS68">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT68">
         <v>1.11</v>
@@ -14133,7 +14145,7 @@
         <v>1.67</v>
       </c>
       <c r="AT69">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU69">
         <v>1.97</v>
@@ -14515,7 +14527,7 @@
         <v>0.89</v>
       </c>
       <c r="AT71">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AU71">
         <v>1.37</v>
@@ -14807,7 +14819,7 @@
         <v>82</v>
       </c>
       <c r="P73" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q73">
         <v>6</v>
@@ -14894,7 +14906,7 @@
         <v>1.8</v>
       </c>
       <c r="AS73">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AT73">
         <v>1.56</v>
@@ -15088,7 +15100,7 @@
         <v>1.67</v>
       </c>
       <c r="AT74">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU74">
         <v>1.79</v>
@@ -15276,10 +15288,10 @@
         <v>1</v>
       </c>
       <c r="AS75">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT75">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU75">
         <v>1.4</v>
@@ -15467,7 +15479,7 @@
         <v>1.8</v>
       </c>
       <c r="AS76">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT76">
         <v>1.67</v>
@@ -15571,7 +15583,7 @@
         <v>134</v>
       </c>
       <c r="P77" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q77">
         <v>2</v>
@@ -15658,7 +15670,7 @@
         <v>1</v>
       </c>
       <c r="AS77">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT77">
         <v>1.33</v>
@@ -15852,7 +15864,7 @@
         <v>2.33</v>
       </c>
       <c r="AT78">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU78">
         <v>1.88</v>
@@ -16043,7 +16055,7 @@
         <v>2.33</v>
       </c>
       <c r="AT79">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU79">
         <v>1.84</v>
@@ -16144,7 +16156,7 @@
         <v>82</v>
       </c>
       <c r="P80" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16234,7 +16246,7 @@
         <v>1</v>
       </c>
       <c r="AT80">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU80">
         <v>1.12</v>
@@ -16422,7 +16434,7 @@
         <v>1.2</v>
       </c>
       <c r="AS81">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AT81">
         <v>1.11</v>
@@ -16613,7 +16625,7 @@
         <v>2</v>
       </c>
       <c r="AS82">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT82">
         <v>2.13</v>
@@ -16717,7 +16729,7 @@
         <v>137</v>
       </c>
       <c r="P83" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q83">
         <v>3</v>
@@ -16807,7 +16819,7 @@
         <v>1.89</v>
       </c>
       <c r="AT83">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AU83">
         <v>1.23</v>
@@ -17186,7 +17198,7 @@
         <v>1.2</v>
       </c>
       <c r="AS85">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT85">
         <v>1.11</v>
@@ -17290,7 +17302,7 @@
         <v>82</v>
       </c>
       <c r="P86" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -17380,7 +17392,7 @@
         <v>0.89</v>
       </c>
       <c r="AT86">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU86">
         <v>1.23</v>
@@ -17481,7 +17493,7 @@
         <v>82</v>
       </c>
       <c r="P87" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q87">
         <v>8</v>
@@ -17672,7 +17684,7 @@
         <v>82</v>
       </c>
       <c r="P88" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q88">
         <v>6</v>
@@ -17759,7 +17771,7 @@
         <v>1</v>
       </c>
       <c r="AS88">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT88">
         <v>1.33</v>
@@ -17953,7 +17965,7 @@
         <v>1.67</v>
       </c>
       <c r="AT89">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU89">
         <v>1.79</v>
@@ -18141,7 +18153,7 @@
         <v>2</v>
       </c>
       <c r="AS90">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT90">
         <v>1.56</v>
@@ -18245,7 +18257,7 @@
         <v>139</v>
       </c>
       <c r="P91" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q91">
         <v>2</v>
@@ -18335,7 +18347,7 @@
         <v>0.89</v>
       </c>
       <c r="AT91">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU91">
         <v>1.13</v>
@@ -18523,7 +18535,7 @@
         <v>1.17</v>
       </c>
       <c r="AS92">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AT92">
         <v>1.11</v>
@@ -18627,7 +18639,7 @@
         <v>140</v>
       </c>
       <c r="P93" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -18717,7 +18729,7 @@
         <v>2.33</v>
       </c>
       <c r="AT93">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU93">
         <v>1.81</v>
@@ -18818,7 +18830,7 @@
         <v>82</v>
       </c>
       <c r="P94" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -18908,7 +18920,7 @@
         <v>1</v>
       </c>
       <c r="AT94">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU94">
         <v>1.09</v>
@@ -19009,7 +19021,7 @@
         <v>82</v>
       </c>
       <c r="P95" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -19096,10 +19108,10 @@
         <v>2.14</v>
       </c>
       <c r="AS95">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT95">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AU95">
         <v>1.1</v>
@@ -19287,7 +19299,7 @@
         <v>1.83</v>
       </c>
       <c r="AS96">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AT96">
         <v>2.13</v>
@@ -19391,7 +19403,7 @@
         <v>141</v>
       </c>
       <c r="P97" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -19478,10 +19490,10 @@
         <v>1.5</v>
       </c>
       <c r="AS97">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT97">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU97">
         <v>1.22</v>
@@ -19669,7 +19681,7 @@
         <v>1.5</v>
       </c>
       <c r="AS98">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT98">
         <v>1.11</v>
@@ -20054,7 +20066,7 @@
         <v>1.89</v>
       </c>
       <c r="AT100">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU100">
         <v>1.19</v>
@@ -20155,7 +20167,7 @@
         <v>143</v>
       </c>
       <c r="P101" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q101">
         <v>11</v>
@@ -20433,7 +20445,7 @@
         <v>1.43</v>
       </c>
       <c r="AS102">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT102">
         <v>1.11</v>
@@ -20537,7 +20549,7 @@
         <v>145</v>
       </c>
       <c r="P103" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q103">
         <v>2</v>
@@ -20627,7 +20639,7 @@
         <v>0.89</v>
       </c>
       <c r="AT103">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU103">
         <v>1.09</v>
@@ -20728,7 +20740,7 @@
         <v>146</v>
       </c>
       <c r="P104" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q104">
         <v>1</v>
@@ -20818,7 +20830,7 @@
         <v>1</v>
       </c>
       <c r="AT104">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU104">
         <v>1.06</v>
@@ -20919,7 +20931,7 @@
         <v>147</v>
       </c>
       <c r="P105" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -21006,7 +21018,7 @@
         <v>1</v>
       </c>
       <c r="AS105">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT105">
         <v>1.11</v>
@@ -21492,7 +21504,7 @@
         <v>148</v>
       </c>
       <c r="P108" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q108">
         <v>1</v>
@@ -21579,10 +21591,10 @@
         <v>2.25</v>
       </c>
       <c r="AS108">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT108">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AU108">
         <v>1.32</v>
@@ -21683,7 +21695,7 @@
         <v>82</v>
       </c>
       <c r="P109" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q109">
         <v>1</v>
@@ -21770,7 +21782,7 @@
         <v>2</v>
       </c>
       <c r="AS109">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AT109">
         <v>2.13</v>
@@ -21874,7 +21886,7 @@
         <v>82</v>
       </c>
       <c r="P110" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q110">
         <v>10</v>
@@ -21961,10 +21973,10 @@
         <v>0.86</v>
       </c>
       <c r="AS110">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT110">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU110">
         <v>1.22</v>
@@ -22152,10 +22164,10 @@
         <v>1.71</v>
       </c>
       <c r="AS111">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AT111">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU111">
         <v>1.05</v>
@@ -22346,7 +22358,7 @@
         <v>1.89</v>
       </c>
       <c r="AT112">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU112">
         <v>1.15</v>
@@ -22534,10 +22546,10 @@
         <v>1</v>
       </c>
       <c r="AS113">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT113">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU113">
         <v>1.09</v>
@@ -22829,7 +22841,7 @@
         <v>82</v>
       </c>
       <c r="P115" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q115">
         <v>8</v>
@@ -23211,7 +23223,7 @@
         <v>149</v>
       </c>
       <c r="P117" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q117">
         <v>6</v>
@@ -23301,7 +23313,7 @@
         <v>1.89</v>
       </c>
       <c r="AT117">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU117">
         <v>1.2</v>
@@ -23402,7 +23414,7 @@
         <v>150</v>
       </c>
       <c r="P118" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q118">
         <v>3</v>
@@ -23680,7 +23692,7 @@
         <v>1.25</v>
       </c>
       <c r="AS119">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT119">
         <v>1.11</v>
@@ -23784,7 +23796,7 @@
         <v>152</v>
       </c>
       <c r="P120" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q120">
         <v>4</v>
@@ -24117,6 +24129,1343 @@
       </c>
       <c r="BK121">
         <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:63">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>6035626</v>
+      </c>
+      <c r="C122" t="s">
+        <v>63</v>
+      </c>
+      <c r="D122" t="s">
+        <v>64</v>
+      </c>
+      <c r="E122" s="2">
+        <v>45129.41666666666</v>
+      </c>
+      <c r="F122">
+        <v>12</v>
+      </c>
+      <c r="G122" t="s">
+        <v>67</v>
+      </c>
+      <c r="H122" t="s">
+        <v>71</v>
+      </c>
+      <c r="I122">
+        <v>1</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>1</v>
+      </c>
+      <c r="L122">
+        <v>3</v>
+      </c>
+      <c r="M122">
+        <v>0</v>
+      </c>
+      <c r="N122">
+        <v>3</v>
+      </c>
+      <c r="O122" t="s">
+        <v>154</v>
+      </c>
+      <c r="P122" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q122">
+        <v>6</v>
+      </c>
+      <c r="R122">
+        <v>4</v>
+      </c>
+      <c r="S122">
+        <v>10</v>
+      </c>
+      <c r="T122">
+        <v>3.74</v>
+      </c>
+      <c r="U122">
+        <v>1.92</v>
+      </c>
+      <c r="V122">
+        <v>3.04</v>
+      </c>
+      <c r="W122">
+        <v>1.56</v>
+      </c>
+      <c r="X122">
+        <v>2.31</v>
+      </c>
+      <c r="Y122">
+        <v>3.3</v>
+      </c>
+      <c r="Z122">
+        <v>1.28</v>
+      </c>
+      <c r="AA122">
+        <v>8.9</v>
+      </c>
+      <c r="AB122">
+        <v>1.03</v>
+      </c>
+      <c r="AC122">
+        <v>2.7</v>
+      </c>
+      <c r="AD122">
+        <v>2.82</v>
+      </c>
+      <c r="AE122">
+        <v>2.49</v>
+      </c>
+      <c r="AF122">
+        <v>1.07</v>
+      </c>
+      <c r="AG122">
+        <v>7</v>
+      </c>
+      <c r="AH122">
+        <v>1.45</v>
+      </c>
+      <c r="AI122">
+        <v>2.55</v>
+      </c>
+      <c r="AJ122">
+        <v>2.32</v>
+      </c>
+      <c r="AK122">
+        <v>1.54</v>
+      </c>
+      <c r="AL122">
+        <v>2</v>
+      </c>
+      <c r="AM122">
+        <v>1.68</v>
+      </c>
+      <c r="AN122">
+        <v>1.51</v>
+      </c>
+      <c r="AO122">
+        <v>1.36</v>
+      </c>
+      <c r="AP122">
+        <v>1.35</v>
+      </c>
+      <c r="AQ122">
+        <v>1.75</v>
+      </c>
+      <c r="AR122">
+        <v>2.11</v>
+      </c>
+      <c r="AS122">
+        <v>1.89</v>
+      </c>
+      <c r="AT122">
+        <v>1.9</v>
+      </c>
+      <c r="AU122">
+        <v>1.47</v>
+      </c>
+      <c r="AV122">
+        <v>1.36</v>
+      </c>
+      <c r="AW122">
+        <v>2.83</v>
+      </c>
+      <c r="AX122">
+        <v>0</v>
+      </c>
+      <c r="AY122">
+        <v>0</v>
+      </c>
+      <c r="AZ122">
+        <v>0</v>
+      </c>
+      <c r="BA122">
+        <v>0</v>
+      </c>
+      <c r="BB122">
+        <v>0</v>
+      </c>
+      <c r="BC122">
+        <v>0</v>
+      </c>
+      <c r="BD122">
+        <v>0</v>
+      </c>
+      <c r="BE122">
+        <v>0</v>
+      </c>
+      <c r="BF122">
+        <v>5</v>
+      </c>
+      <c r="BG122">
+        <v>4</v>
+      </c>
+      <c r="BH122">
+        <v>6</v>
+      </c>
+      <c r="BI122">
+        <v>6</v>
+      </c>
+      <c r="BJ122">
+        <v>11</v>
+      </c>
+      <c r="BK122">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:63">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>6035624</v>
+      </c>
+      <c r="C123" t="s">
+        <v>63</v>
+      </c>
+      <c r="D123" t="s">
+        <v>64</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45129.625</v>
+      </c>
+      <c r="F123">
+        <v>12</v>
+      </c>
+      <c r="G123" t="s">
+        <v>68</v>
+      </c>
+      <c r="H123" t="s">
+        <v>77</v>
+      </c>
+      <c r="I123">
+        <v>1</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>1</v>
+      </c>
+      <c r="L123">
+        <v>3</v>
+      </c>
+      <c r="M123">
+        <v>0</v>
+      </c>
+      <c r="N123">
+        <v>3</v>
+      </c>
+      <c r="O123" t="s">
+        <v>155</v>
+      </c>
+      <c r="P123" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q123">
+        <v>3</v>
+      </c>
+      <c r="R123">
+        <v>3</v>
+      </c>
+      <c r="S123">
+        <v>6</v>
+      </c>
+      <c r="T123">
+        <v>2.2</v>
+      </c>
+      <c r="U123">
+        <v>2.1</v>
+      </c>
+      <c r="V123">
+        <v>5.25</v>
+      </c>
+      <c r="W123">
+        <v>1.42</v>
+      </c>
+      <c r="X123">
+        <v>2.6</v>
+      </c>
+      <c r="Y123">
+        <v>2.95</v>
+      </c>
+      <c r="Z123">
+        <v>1.34</v>
+      </c>
+      <c r="AA123">
+        <v>7.6</v>
+      </c>
+      <c r="AB123">
+        <v>1.05</v>
+      </c>
+      <c r="AC123">
+        <v>1.62</v>
+      </c>
+      <c r="AD123">
+        <v>3.7</v>
+      </c>
+      <c r="AE123">
+        <v>5.2</v>
+      </c>
+      <c r="AF123">
+        <v>1.05</v>
+      </c>
+      <c r="AG123">
+        <v>9.75</v>
+      </c>
+      <c r="AH123">
+        <v>1.35</v>
+      </c>
+      <c r="AI123">
+        <v>2.9</v>
+      </c>
+      <c r="AJ123">
+        <v>2.09</v>
+      </c>
+      <c r="AK123">
+        <v>1.66</v>
+      </c>
+      <c r="AL123">
+        <v>2.1</v>
+      </c>
+      <c r="AM123">
+        <v>1.65</v>
+      </c>
+      <c r="AN123">
+        <v>1.15</v>
+      </c>
+      <c r="AO123">
+        <v>1.26</v>
+      </c>
+      <c r="AP123">
+        <v>2.2</v>
+      </c>
+      <c r="AQ123">
+        <v>1.67</v>
+      </c>
+      <c r="AR123">
+        <v>0.89</v>
+      </c>
+      <c r="AS123">
+        <v>1.8</v>
+      </c>
+      <c r="AT123">
+        <v>0.8</v>
+      </c>
+      <c r="AU123">
+        <v>1.39</v>
+      </c>
+      <c r="AV123">
+        <v>1.36</v>
+      </c>
+      <c r="AW123">
+        <v>2.75</v>
+      </c>
+      <c r="AX123">
+        <v>0</v>
+      </c>
+      <c r="AY123">
+        <v>0</v>
+      </c>
+      <c r="AZ123">
+        <v>0</v>
+      </c>
+      <c r="BA123">
+        <v>0</v>
+      </c>
+      <c r="BB123">
+        <v>0</v>
+      </c>
+      <c r="BC123">
+        <v>1.93</v>
+      </c>
+      <c r="BD123">
+        <v>0</v>
+      </c>
+      <c r="BE123">
+        <v>0</v>
+      </c>
+      <c r="BF123">
+        <v>4</v>
+      </c>
+      <c r="BG123">
+        <v>3</v>
+      </c>
+      <c r="BH123">
+        <v>6</v>
+      </c>
+      <c r="BI123">
+        <v>4</v>
+      </c>
+      <c r="BJ123">
+        <v>10</v>
+      </c>
+      <c r="BK123">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:63">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>6035627</v>
+      </c>
+      <c r="C124" t="s">
+        <v>63</v>
+      </c>
+      <c r="D124" t="s">
+        <v>64</v>
+      </c>
+      <c r="E124" s="2">
+        <v>45129.625</v>
+      </c>
+      <c r="F124">
+        <v>12</v>
+      </c>
+      <c r="G124" t="s">
+        <v>73</v>
+      </c>
+      <c r="H124" t="s">
+        <v>74</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+      <c r="M124">
+        <v>1</v>
+      </c>
+      <c r="N124">
+        <v>1</v>
+      </c>
+      <c r="O124" t="s">
+        <v>82</v>
+      </c>
+      <c r="P124" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q124">
+        <v>5</v>
+      </c>
+      <c r="R124">
+        <v>5</v>
+      </c>
+      <c r="S124">
+        <v>10</v>
+      </c>
+      <c r="T124">
+        <v>4</v>
+      </c>
+      <c r="U124">
+        <v>2</v>
+      </c>
+      <c r="V124">
+        <v>2.75</v>
+      </c>
+      <c r="W124">
+        <v>1.47</v>
+      </c>
+      <c r="X124">
+        <v>2.45</v>
+      </c>
+      <c r="Y124">
+        <v>3.2</v>
+      </c>
+      <c r="Z124">
+        <v>1.3</v>
+      </c>
+      <c r="AA124">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AB124">
+        <v>1.04</v>
+      </c>
+      <c r="AC124">
+        <v>3.55</v>
+      </c>
+      <c r="AD124">
+        <v>3.25</v>
+      </c>
+      <c r="AE124">
+        <v>2.03</v>
+      </c>
+      <c r="AF124">
+        <v>1.06</v>
+      </c>
+      <c r="AG124">
+        <v>8.5</v>
+      </c>
+      <c r="AH124">
+        <v>1.38</v>
+      </c>
+      <c r="AI124">
+        <v>2.75</v>
+      </c>
+      <c r="AJ124">
+        <v>2.23</v>
+      </c>
+      <c r="AK124">
+        <v>1.58</v>
+      </c>
+      <c r="AL124">
+        <v>1.98</v>
+      </c>
+      <c r="AM124">
+        <v>1.72</v>
+      </c>
+      <c r="AN124">
+        <v>1.72</v>
+      </c>
+      <c r="AO124">
+        <v>1.32</v>
+      </c>
+      <c r="AP124">
+        <v>1.27</v>
+      </c>
+      <c r="AQ124">
+        <v>0.75</v>
+      </c>
+      <c r="AR124">
+        <v>1.63</v>
+      </c>
+      <c r="AS124">
+        <v>0.67</v>
+      </c>
+      <c r="AT124">
+        <v>1.78</v>
+      </c>
+      <c r="AU124">
+        <v>1.14</v>
+      </c>
+      <c r="AV124">
+        <v>1.3</v>
+      </c>
+      <c r="AW124">
+        <v>2.44</v>
+      </c>
+      <c r="AX124">
+        <v>0</v>
+      </c>
+      <c r="AY124">
+        <v>0</v>
+      </c>
+      <c r="AZ124">
+        <v>0</v>
+      </c>
+      <c r="BA124">
+        <v>0</v>
+      </c>
+      <c r="BB124">
+        <v>0</v>
+      </c>
+      <c r="BC124">
+        <v>0</v>
+      </c>
+      <c r="BD124">
+        <v>0</v>
+      </c>
+      <c r="BE124">
+        <v>0</v>
+      </c>
+      <c r="BF124">
+        <v>2</v>
+      </c>
+      <c r="BG124">
+        <v>3</v>
+      </c>
+      <c r="BH124">
+        <v>3</v>
+      </c>
+      <c r="BI124">
+        <v>3</v>
+      </c>
+      <c r="BJ124">
+        <v>5</v>
+      </c>
+      <c r="BK124">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:63">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>6035628</v>
+      </c>
+      <c r="C125" t="s">
+        <v>63</v>
+      </c>
+      <c r="D125" t="s">
+        <v>64</v>
+      </c>
+      <c r="E125" s="2">
+        <v>45129.625</v>
+      </c>
+      <c r="F125">
+        <v>12</v>
+      </c>
+      <c r="G125" t="s">
+        <v>66</v>
+      </c>
+      <c r="H125" t="s">
+        <v>76</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>1</v>
+      </c>
+      <c r="L125">
+        <v>2</v>
+      </c>
+      <c r="M125">
+        <v>0</v>
+      </c>
+      <c r="N125">
+        <v>2</v>
+      </c>
+      <c r="O125" t="s">
+        <v>156</v>
+      </c>
+      <c r="P125" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q125">
+        <v>0</v>
+      </c>
+      <c r="R125">
+        <v>7</v>
+      </c>
+      <c r="S125">
+        <v>7</v>
+      </c>
+      <c r="T125">
+        <v>3.5</v>
+      </c>
+      <c r="U125">
+        <v>1.88</v>
+      </c>
+      <c r="V125">
+        <v>3.25</v>
+      </c>
+      <c r="W125">
+        <v>1.53</v>
+      </c>
+      <c r="X125">
+        <v>2.3</v>
+      </c>
+      <c r="Y125">
+        <v>3.5</v>
+      </c>
+      <c r="Z125">
+        <v>1.27</v>
+      </c>
+      <c r="AA125">
+        <v>9.6</v>
+      </c>
+      <c r="AB125">
+        <v>1.02</v>
+      </c>
+      <c r="AC125">
+        <v>2.83</v>
+      </c>
+      <c r="AD125">
+        <v>2.97</v>
+      </c>
+      <c r="AE125">
+        <v>2.52</v>
+      </c>
+      <c r="AF125">
+        <v>1.1</v>
+      </c>
+      <c r="AG125">
+        <v>6.25</v>
+      </c>
+      <c r="AH125">
+        <v>1.49</v>
+      </c>
+      <c r="AI125">
+        <v>2.45</v>
+      </c>
+      <c r="AJ125">
+        <v>2.52</v>
+      </c>
+      <c r="AK125">
+        <v>1.46</v>
+      </c>
+      <c r="AL125">
+        <v>2.05</v>
+      </c>
+      <c r="AM125">
+        <v>1.66</v>
+      </c>
+      <c r="AN125">
+        <v>1.47</v>
+      </c>
+      <c r="AO125">
+        <v>1.37</v>
+      </c>
+      <c r="AP125">
+        <v>1.39</v>
+      </c>
+      <c r="AQ125">
+        <v>2</v>
+      </c>
+      <c r="AR125">
+        <v>1</v>
+      </c>
+      <c r="AS125">
+        <v>2.1</v>
+      </c>
+      <c r="AT125">
+        <v>0.89</v>
+      </c>
+      <c r="AU125">
+        <v>1.26</v>
+      </c>
+      <c r="AV125">
+        <v>1.27</v>
+      </c>
+      <c r="AW125">
+        <v>2.53</v>
+      </c>
+      <c r="AX125">
+        <v>0</v>
+      </c>
+      <c r="AY125">
+        <v>0</v>
+      </c>
+      <c r="AZ125">
+        <v>0</v>
+      </c>
+      <c r="BA125">
+        <v>0</v>
+      </c>
+      <c r="BB125">
+        <v>0</v>
+      </c>
+      <c r="BC125">
+        <v>0</v>
+      </c>
+      <c r="BD125">
+        <v>0</v>
+      </c>
+      <c r="BE125">
+        <v>0</v>
+      </c>
+      <c r="BF125">
+        <v>5</v>
+      </c>
+      <c r="BG125">
+        <v>5</v>
+      </c>
+      <c r="BH125">
+        <v>2</v>
+      </c>
+      <c r="BI125">
+        <v>6</v>
+      </c>
+      <c r="BJ125">
+        <v>7</v>
+      </c>
+      <c r="BK125">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126" spans="1:63">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>6035629</v>
+      </c>
+      <c r="C126" t="s">
+        <v>63</v>
+      </c>
+      <c r="D126" t="s">
+        <v>64</v>
+      </c>
+      <c r="E126" s="2">
+        <v>45129.625</v>
+      </c>
+      <c r="F126">
+        <v>12</v>
+      </c>
+      <c r="G126" t="s">
+        <v>78</v>
+      </c>
+      <c r="H126" t="s">
+        <v>69</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>1</v>
+      </c>
+      <c r="M126">
+        <v>0</v>
+      </c>
+      <c r="N126">
+        <v>1</v>
+      </c>
+      <c r="O126" t="s">
+        <v>112</v>
+      </c>
+      <c r="P126" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q126">
+        <v>-1</v>
+      </c>
+      <c r="R126">
+        <v>-1</v>
+      </c>
+      <c r="S126">
+        <v>-1</v>
+      </c>
+      <c r="T126">
+        <v>0</v>
+      </c>
+      <c r="U126">
+        <v>0</v>
+      </c>
+      <c r="V126">
+        <v>0</v>
+      </c>
+      <c r="W126">
+        <v>0</v>
+      </c>
+      <c r="X126">
+        <v>0</v>
+      </c>
+      <c r="Y126">
+        <v>0</v>
+      </c>
+      <c r="Z126">
+        <v>0</v>
+      </c>
+      <c r="AA126">
+        <v>0</v>
+      </c>
+      <c r="AB126">
+        <v>0</v>
+      </c>
+      <c r="AC126">
+        <v>2.17</v>
+      </c>
+      <c r="AD126">
+        <v>3.05</v>
+      </c>
+      <c r="AE126">
+        <v>3.45</v>
+      </c>
+      <c r="AF126">
+        <v>0</v>
+      </c>
+      <c r="AG126">
+        <v>0</v>
+      </c>
+      <c r="AH126">
+        <v>1.5</v>
+      </c>
+      <c r="AI126">
+        <v>2.5</v>
+      </c>
+      <c r="AJ126">
+        <v>2.41</v>
+      </c>
+      <c r="AK126">
+        <v>1.5</v>
+      </c>
+      <c r="AL126">
+        <v>0</v>
+      </c>
+      <c r="AM126">
+        <v>0</v>
+      </c>
+      <c r="AN126">
+        <v>0</v>
+      </c>
+      <c r="AO126">
+        <v>0</v>
+      </c>
+      <c r="AP126">
+        <v>0</v>
+      </c>
+      <c r="AQ126">
+        <v>0.38</v>
+      </c>
+      <c r="AR126">
+        <v>1.13</v>
+      </c>
+      <c r="AS126">
+        <v>0.67</v>
+      </c>
+      <c r="AT126">
+        <v>1</v>
+      </c>
+      <c r="AU126">
+        <v>1.05</v>
+      </c>
+      <c r="AV126">
+        <v>1.08</v>
+      </c>
+      <c r="AW126">
+        <v>2.13</v>
+      </c>
+      <c r="AX126">
+        <v>0</v>
+      </c>
+      <c r="AY126">
+        <v>0</v>
+      </c>
+      <c r="AZ126">
+        <v>0</v>
+      </c>
+      <c r="BA126">
+        <v>0</v>
+      </c>
+      <c r="BB126">
+        <v>0</v>
+      </c>
+      <c r="BC126">
+        <v>0</v>
+      </c>
+      <c r="BD126">
+        <v>0</v>
+      </c>
+      <c r="BE126">
+        <v>0</v>
+      </c>
+      <c r="BF126">
+        <v>-1</v>
+      </c>
+      <c r="BG126">
+        <v>-1</v>
+      </c>
+      <c r="BH126">
+        <v>-1</v>
+      </c>
+      <c r="BI126">
+        <v>-1</v>
+      </c>
+      <c r="BJ126">
+        <v>-1</v>
+      </c>
+      <c r="BK126">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:63">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>6035625</v>
+      </c>
+      <c r="C127" t="s">
+        <v>63</v>
+      </c>
+      <c r="D127" t="s">
+        <v>64</v>
+      </c>
+      <c r="E127" s="2">
+        <v>45130.625</v>
+      </c>
+      <c r="F127">
+        <v>12</v>
+      </c>
+      <c r="G127" t="s">
+        <v>65</v>
+      </c>
+      <c r="H127" t="s">
+        <v>75</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
+      </c>
+      <c r="L127">
+        <v>2</v>
+      </c>
+      <c r="M127">
+        <v>0</v>
+      </c>
+      <c r="N127">
+        <v>2</v>
+      </c>
+      <c r="O127" t="s">
+        <v>131</v>
+      </c>
+      <c r="P127" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q127">
+        <v>2</v>
+      </c>
+      <c r="R127">
+        <v>8</v>
+      </c>
+      <c r="S127">
+        <v>10</v>
+      </c>
+      <c r="T127">
+        <v>2.75</v>
+      </c>
+      <c r="U127">
+        <v>2</v>
+      </c>
+      <c r="V127">
+        <v>4</v>
+      </c>
+      <c r="W127">
+        <v>0</v>
+      </c>
+      <c r="X127">
+        <v>0</v>
+      </c>
+      <c r="Y127">
+        <v>0</v>
+      </c>
+      <c r="Z127">
+        <v>0</v>
+      </c>
+      <c r="AA127">
+        <v>0</v>
+      </c>
+      <c r="AB127">
+        <v>0</v>
+      </c>
+      <c r="AC127">
+        <v>2.14</v>
+      </c>
+      <c r="AD127">
+        <v>3.15</v>
+      </c>
+      <c r="AE127">
+        <v>3</v>
+      </c>
+      <c r="AF127">
+        <v>0</v>
+      </c>
+      <c r="AG127">
+        <v>0</v>
+      </c>
+      <c r="AH127">
+        <v>0</v>
+      </c>
+      <c r="AI127">
+        <v>0</v>
+      </c>
+      <c r="AJ127">
+        <v>2.19</v>
+      </c>
+      <c r="AK127">
+        <v>1.6</v>
+      </c>
+      <c r="AL127">
+        <v>0</v>
+      </c>
+      <c r="AM127">
+        <v>0</v>
+      </c>
+      <c r="AN127">
+        <v>0</v>
+      </c>
+      <c r="AO127">
+        <v>0</v>
+      </c>
+      <c r="AP127">
+        <v>0</v>
+      </c>
+      <c r="AQ127">
+        <v>1.38</v>
+      </c>
+      <c r="AR127">
+        <v>0.75</v>
+      </c>
+      <c r="AS127">
+        <v>1.56</v>
+      </c>
+      <c r="AT127">
+        <v>0.67</v>
+      </c>
+      <c r="AU127">
+        <v>1.25</v>
+      </c>
+      <c r="AV127">
+        <v>0.96</v>
+      </c>
+      <c r="AW127">
+        <v>2.21</v>
+      </c>
+      <c r="AX127">
+        <v>0</v>
+      </c>
+      <c r="AY127">
+        <v>0</v>
+      </c>
+      <c r="AZ127">
+        <v>0</v>
+      </c>
+      <c r="BA127">
+        <v>0</v>
+      </c>
+      <c r="BB127">
+        <v>0</v>
+      </c>
+      <c r="BC127">
+        <v>0</v>
+      </c>
+      <c r="BD127">
+        <v>0</v>
+      </c>
+      <c r="BE127">
+        <v>0</v>
+      </c>
+      <c r="BF127">
+        <v>7</v>
+      </c>
+      <c r="BG127">
+        <v>4</v>
+      </c>
+      <c r="BH127">
+        <v>2</v>
+      </c>
+      <c r="BI127">
+        <v>2</v>
+      </c>
+      <c r="BJ127">
+        <v>9</v>
+      </c>
+      <c r="BK127">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:63">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>6035623</v>
+      </c>
+      <c r="C128" t="s">
+        <v>63</v>
+      </c>
+      <c r="D128" t="s">
+        <v>64</v>
+      </c>
+      <c r="E128" s="2">
+        <v>45130.625</v>
+      </c>
+      <c r="F128">
+        <v>12</v>
+      </c>
+      <c r="G128" t="s">
+        <v>72</v>
+      </c>
+      <c r="H128" t="s">
+        <v>70</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+      <c r="L128">
+        <v>2</v>
+      </c>
+      <c r="M128">
+        <v>0</v>
+      </c>
+      <c r="N128">
+        <v>2</v>
+      </c>
+      <c r="O128" t="s">
+        <v>131</v>
+      </c>
+      <c r="P128" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q128">
+        <v>8</v>
+      </c>
+      <c r="R128">
+        <v>4</v>
+      </c>
+      <c r="S128">
+        <v>12</v>
+      </c>
+      <c r="T128">
+        <v>2.4</v>
+      </c>
+      <c r="U128">
+        <v>2</v>
+      </c>
+      <c r="V128">
+        <v>5</v>
+      </c>
+      <c r="W128">
+        <v>1.5</v>
+      </c>
+      <c r="X128">
+        <v>2.42</v>
+      </c>
+      <c r="Y128">
+        <v>3.34</v>
+      </c>
+      <c r="Z128">
+        <v>1.28</v>
+      </c>
+      <c r="AA128">
+        <v>9.1</v>
+      </c>
+      <c r="AB128">
+        <v>1.03</v>
+      </c>
+      <c r="AC128">
+        <v>1.77</v>
+      </c>
+      <c r="AD128">
+        <v>3.15</v>
+      </c>
+      <c r="AE128">
+        <v>4.2</v>
+      </c>
+      <c r="AF128">
+        <v>1.03</v>
+      </c>
+      <c r="AG128">
+        <v>7.5</v>
+      </c>
+      <c r="AH128">
+        <v>1.4</v>
+      </c>
+      <c r="AI128">
+        <v>2.75</v>
+      </c>
+      <c r="AJ128">
+        <v>2.36</v>
+      </c>
+      <c r="AK128">
+        <v>1.52</v>
+      </c>
+      <c r="AL128">
+        <v>2.05</v>
+      </c>
+      <c r="AM128">
+        <v>1.67</v>
+      </c>
+      <c r="AN128">
+        <v>1.12</v>
+      </c>
+      <c r="AO128">
+        <v>1.25</v>
+      </c>
+      <c r="AP128">
+        <v>1.9</v>
+      </c>
+      <c r="AQ128">
+        <v>1.13</v>
+      </c>
+      <c r="AR128">
+        <v>0.38</v>
+      </c>
+      <c r="AS128">
+        <v>1.33</v>
+      </c>
+      <c r="AT128">
+        <v>0.33</v>
+      </c>
+      <c r="AU128">
+        <v>1.1</v>
+      </c>
+      <c r="AV128">
+        <v>1.1</v>
+      </c>
+      <c r="AW128">
+        <v>2.2</v>
+      </c>
+      <c r="AX128">
+        <v>0</v>
+      </c>
+      <c r="AY128">
+        <v>0</v>
+      </c>
+      <c r="AZ128">
+        <v>0</v>
+      </c>
+      <c r="BA128">
+        <v>0</v>
+      </c>
+      <c r="BB128">
+        <v>0</v>
+      </c>
+      <c r="BC128">
+        <v>1.98</v>
+      </c>
+      <c r="BD128">
+        <v>0</v>
+      </c>
+      <c r="BE128">
+        <v>0</v>
+      </c>
+      <c r="BF128">
+        <v>8</v>
+      </c>
+      <c r="BG128">
+        <v>5</v>
+      </c>
+      <c r="BH128">
+        <v>6</v>
+      </c>
+      <c r="BI128">
+        <v>2</v>
+      </c>
+      <c r="BJ128">
+        <v>14</v>
+      </c>
+      <c r="BK128">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Uruguay Segunda División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Uruguay Segunda División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="215">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -485,6 +485,12 @@
   </si>
   <si>
     <t>['31', '9005']</t>
+  </si>
+  <si>
+    <t>['38', '9007']</t>
+  </si>
+  <si>
+    <t>['7', '54']</t>
   </si>
   <si>
     <t>['90+4']</t>
@@ -2213,7 +2219,7 @@
         <v>84</v>
       </c>
       <c r="P7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2595,7 +2601,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -2786,7 +2792,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -2977,7 +2983,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -3168,7 +3174,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q12">
         <v>12</v>
@@ -3741,7 +3747,7 @@
         <v>90</v>
       </c>
       <c r="P15" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -3932,7 +3938,7 @@
         <v>82</v>
       </c>
       <c r="P16" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q16">
         <v>-1</v>
@@ -4123,7 +4129,7 @@
         <v>91</v>
       </c>
       <c r="P17" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q17">
         <v>6</v>
@@ -4505,7 +4511,7 @@
         <v>82</v>
       </c>
       <c r="P19" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q19">
         <v>10</v>
@@ -4887,7 +4893,7 @@
         <v>82</v>
       </c>
       <c r="P21" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q21">
         <v>7</v>
@@ -5078,7 +5084,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q22">
         <v>8</v>
@@ -5269,7 +5275,7 @@
         <v>82</v>
       </c>
       <c r="P23" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5460,7 +5466,7 @@
         <v>93</v>
       </c>
       <c r="P24" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -6033,7 +6039,7 @@
         <v>96</v>
       </c>
       <c r="P27" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6224,7 +6230,7 @@
         <v>82</v>
       </c>
       <c r="P28" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q28">
         <v>2</v>
@@ -6415,7 +6421,7 @@
         <v>97</v>
       </c>
       <c r="P29" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q29">
         <v>-1</v>
@@ -6606,7 +6612,7 @@
         <v>98</v>
       </c>
       <c r="P30" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q30">
         <v>5</v>
@@ -6797,7 +6803,7 @@
         <v>99</v>
       </c>
       <c r="P31" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q31">
         <v>9</v>
@@ -6988,7 +6994,7 @@
         <v>100</v>
       </c>
       <c r="P32" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7179,7 +7185,7 @@
         <v>101</v>
       </c>
       <c r="P33" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q33">
         <v>7</v>
@@ -7752,7 +7758,7 @@
         <v>103</v>
       </c>
       <c r="P36" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q36">
         <v>5</v>
@@ -7943,7 +7949,7 @@
         <v>104</v>
       </c>
       <c r="P37" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q37">
         <v>2</v>
@@ -8707,7 +8713,7 @@
         <v>106</v>
       </c>
       <c r="P41" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -9089,7 +9095,7 @@
         <v>108</v>
       </c>
       <c r="P43" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q43">
         <v>-1</v>
@@ -9280,7 +9286,7 @@
         <v>109</v>
       </c>
       <c r="P44" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9662,7 +9668,7 @@
         <v>111</v>
       </c>
       <c r="P46" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -10044,7 +10050,7 @@
         <v>113</v>
       </c>
       <c r="P48" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q48">
         <v>7</v>
@@ -10235,7 +10241,7 @@
         <v>114</v>
       </c>
       <c r="P49" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q49">
         <v>8</v>
@@ -10617,7 +10623,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q51">
         <v>3</v>
@@ -10808,7 +10814,7 @@
         <v>117</v>
       </c>
       <c r="P52" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q52">
         <v>9</v>
@@ -10999,7 +11005,7 @@
         <v>118</v>
       </c>
       <c r="P53" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -11190,7 +11196,7 @@
         <v>119</v>
       </c>
       <c r="P54" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11572,7 +11578,7 @@
         <v>120</v>
       </c>
       <c r="P56" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q56">
         <v>11</v>
@@ -11763,7 +11769,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12336,7 +12342,7 @@
         <v>123</v>
       </c>
       <c r="P60" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q60">
         <v>5</v>
@@ -12527,7 +12533,7 @@
         <v>124</v>
       </c>
       <c r="P61" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q61">
         <v>12</v>
@@ -13482,7 +13488,7 @@
         <v>82</v>
       </c>
       <c r="P66" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -13673,7 +13679,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q67">
         <v>8</v>
@@ -14819,7 +14825,7 @@
         <v>82</v>
       </c>
       <c r="P73" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q73">
         <v>6</v>
@@ -15583,7 +15589,7 @@
         <v>134</v>
       </c>
       <c r="P77" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q77">
         <v>2</v>
@@ -16156,7 +16162,7 @@
         <v>82</v>
       </c>
       <c r="P80" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16729,7 +16735,7 @@
         <v>137</v>
       </c>
       <c r="P83" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q83">
         <v>3</v>
@@ -17302,7 +17308,7 @@
         <v>82</v>
       </c>
       <c r="P86" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -17493,7 +17499,7 @@
         <v>82</v>
       </c>
       <c r="P87" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q87">
         <v>8</v>
@@ -17684,7 +17690,7 @@
         <v>82</v>
       </c>
       <c r="P88" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q88">
         <v>6</v>
@@ -18257,7 +18263,7 @@
         <v>139</v>
       </c>
       <c r="P91" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q91">
         <v>2</v>
@@ -18639,7 +18645,7 @@
         <v>140</v>
       </c>
       <c r="P93" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -18830,7 +18836,7 @@
         <v>82</v>
       </c>
       <c r="P94" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -19021,7 +19027,7 @@
         <v>82</v>
       </c>
       <c r="P95" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -19403,7 +19409,7 @@
         <v>141</v>
       </c>
       <c r="P97" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -20167,7 +20173,7 @@
         <v>143</v>
       </c>
       <c r="P101" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q101">
         <v>11</v>
@@ -20549,7 +20555,7 @@
         <v>145</v>
       </c>
       <c r="P103" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q103">
         <v>2</v>
@@ -20740,7 +20746,7 @@
         <v>146</v>
       </c>
       <c r="P104" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q104">
         <v>1</v>
@@ -20931,7 +20937,7 @@
         <v>147</v>
       </c>
       <c r="P105" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -21504,7 +21510,7 @@
         <v>148</v>
       </c>
       <c r="P108" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q108">
         <v>1</v>
@@ -21695,7 +21701,7 @@
         <v>82</v>
       </c>
       <c r="P109" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q109">
         <v>1</v>
@@ -21886,7 +21892,7 @@
         <v>82</v>
       </c>
       <c r="P110" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q110">
         <v>10</v>
@@ -22841,7 +22847,7 @@
         <v>82</v>
       </c>
       <c r="P115" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q115">
         <v>8</v>
@@ -23223,7 +23229,7 @@
         <v>149</v>
       </c>
       <c r="P117" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q117">
         <v>6</v>
@@ -23414,7 +23420,7 @@
         <v>150</v>
       </c>
       <c r="P118" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q118">
         <v>3</v>
@@ -23796,7 +23802,7 @@
         <v>152</v>
       </c>
       <c r="P120" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q120">
         <v>4</v>
@@ -24560,7 +24566,7 @@
         <v>82</v>
       </c>
       <c r="P124" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q124">
         <v>5</v>
@@ -25112,13 +25118,13 @@
         <v>75</v>
       </c>
       <c r="I127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127">
         <v>0</v>
       </c>
       <c r="K127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L127">
         <v>2</v>
@@ -25130,7 +25136,7 @@
         <v>2</v>
       </c>
       <c r="O127" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="P127" t="s">
         <v>82</v>
@@ -25303,13 +25309,13 @@
         <v>70</v>
       </c>
       <c r="I128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128">
         <v>0</v>
       </c>
       <c r="K128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L128">
         <v>2</v>
@@ -25321,7 +25327,7 @@
         <v>2</v>
       </c>
       <c r="O128" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="P128" t="s">
         <v>82</v>

--- a/Bases_de_Dados_(2022-2024)/Uruguay Segunda División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Uruguay Segunda División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="222">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -493,10 +493,19 @@
     <t>['7', '54']</t>
   </si>
   <si>
-    <t>['90+4']</t>
+    <t>['55']</t>
   </si>
   <si>
     <t>['51']</t>
+  </si>
+  <si>
+    <t>['90+5']</t>
+  </si>
+  <si>
+    <t>['-1', '-1', '-1', '-1', '-1']</t>
+  </si>
+  <si>
+    <t>['90+4']</t>
   </si>
   <si>
     <t>['37', '51']</t>
@@ -659,6 +668,18 @@
   </si>
   <si>
     <t>['48']</t>
+  </si>
+  <si>
+    <t>['74']</t>
+  </si>
+  <si>
+    <t>['25', '33']</t>
+  </si>
+  <si>
+    <t>['51', '80']</t>
+  </si>
+  <si>
+    <t>['9005']</t>
   </si>
 </sst>
 </file>
@@ -1020,7 +1041,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK128"/>
+  <dimension ref="A1:BK135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1354,7 +1375,7 @@
         <v>1.56</v>
       </c>
       <c r="AT2">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1736,7 +1757,7 @@
         <v>1.89</v>
       </c>
       <c r="AT4">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2115,7 +2136,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT6">
         <v>1.78</v>
@@ -2219,7 +2240,7 @@
         <v>84</v>
       </c>
       <c r="P7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2497,10 +2518,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AT8">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2691,7 +2712,7 @@
         <v>1.33</v>
       </c>
       <c r="AT9">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2792,7 +2813,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -2882,7 +2903,7 @@
         <v>0.67</v>
       </c>
       <c r="AT10">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -2983,7 +3004,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -3070,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT11">
         <v>0.33</v>
@@ -3174,7 +3195,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q12">
         <v>12</v>
@@ -3261,7 +3282,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT12">
         <v>0.8</v>
@@ -3452,10 +3473,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT13">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3747,7 +3768,7 @@
         <v>90</v>
       </c>
       <c r="P15" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -3938,7 +3959,7 @@
         <v>82</v>
       </c>
       <c r="P16" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q16">
         <v>-1</v>
@@ -4025,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="AS16">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT16">
         <v>0.89</v>
@@ -4129,7 +4150,7 @@
         <v>91</v>
       </c>
       <c r="P17" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q17">
         <v>6</v>
@@ -4219,7 +4240,7 @@
         <v>1.89</v>
       </c>
       <c r="AT17">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU17">
         <v>1.9</v>
@@ -4410,7 +4431,7 @@
         <v>0.67</v>
       </c>
       <c r="AT18">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4511,7 +4532,7 @@
         <v>82</v>
       </c>
       <c r="P19" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q19">
         <v>10</v>
@@ -4601,7 +4622,7 @@
         <v>1.8</v>
       </c>
       <c r="AT19">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU19">
         <v>0.97</v>
@@ -4789,7 +4810,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT20">
         <v>0.67</v>
@@ -4893,7 +4914,7 @@
         <v>82</v>
       </c>
       <c r="P21" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q21">
         <v>7</v>
@@ -4983,7 +5004,7 @@
         <v>0.67</v>
       </c>
       <c r="AT21">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU21">
         <v>1.68</v>
@@ -5084,7 +5105,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q22">
         <v>8</v>
@@ -5171,7 +5192,7 @@
         <v>3</v>
       </c>
       <c r="AS22">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT22">
         <v>0.8</v>
@@ -5275,7 +5296,7 @@
         <v>82</v>
       </c>
       <c r="P23" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5362,10 +5383,10 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT23">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU23">
         <v>1.05</v>
@@ -5466,7 +5487,7 @@
         <v>93</v>
       </c>
       <c r="P24" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -5556,7 +5577,7 @@
         <v>1.56</v>
       </c>
       <c r="AT24">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU24">
         <v>1.07</v>
@@ -5935,10 +5956,10 @@
         <v>1.5</v>
       </c>
       <c r="AS26">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AT26">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU26">
         <v>1.46</v>
@@ -6039,7 +6060,7 @@
         <v>96</v>
       </c>
       <c r="P27" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6129,7 +6150,7 @@
         <v>1.8</v>
       </c>
       <c r="AT27">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU27">
         <v>1.65</v>
@@ -6230,7 +6251,7 @@
         <v>82</v>
       </c>
       <c r="P28" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q28">
         <v>2</v>
@@ -6320,7 +6341,7 @@
         <v>0.67</v>
       </c>
       <c r="AT28">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU28">
         <v>1.13</v>
@@ -6421,7 +6442,7 @@
         <v>97</v>
       </c>
       <c r="P29" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q29">
         <v>-1</v>
@@ -6508,7 +6529,7 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT29">
         <v>1</v>
@@ -6612,7 +6633,7 @@
         <v>98</v>
       </c>
       <c r="P30" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q30">
         <v>5</v>
@@ -6699,7 +6720,7 @@
         <v>1</v>
       </c>
       <c r="AS30">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT30">
         <v>1.78</v>
@@ -6803,7 +6824,7 @@
         <v>99</v>
       </c>
       <c r="P31" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q31">
         <v>9</v>
@@ -6893,7 +6914,7 @@
         <v>0.67</v>
       </c>
       <c r="AT31">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU31">
         <v>1.41</v>
@@ -6994,7 +7015,7 @@
         <v>100</v>
       </c>
       <c r="P32" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7084,7 +7105,7 @@
         <v>1.89</v>
       </c>
       <c r="AT32">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU32">
         <v>1.38</v>
@@ -7185,7 +7206,7 @@
         <v>101</v>
       </c>
       <c r="P33" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q33">
         <v>7</v>
@@ -7654,7 +7675,7 @@
         <v>0.5</v>
       </c>
       <c r="AS35">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT35">
         <v>0.67</v>
@@ -7758,7 +7779,7 @@
         <v>103</v>
       </c>
       <c r="P36" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q36">
         <v>5</v>
@@ -7845,7 +7866,7 @@
         <v>2</v>
       </c>
       <c r="AS36">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT36">
         <v>0.89</v>
@@ -7949,7 +7970,7 @@
         <v>104</v>
       </c>
       <c r="P37" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q37">
         <v>2</v>
@@ -8230,7 +8251,7 @@
         <v>0.67</v>
       </c>
       <c r="AT38">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU38">
         <v>1.05</v>
@@ -8418,10 +8439,10 @@
         <v>1.5</v>
       </c>
       <c r="AS39">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AT39">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU39">
         <v>1.78</v>
@@ -8612,7 +8633,7 @@
         <v>1.33</v>
       </c>
       <c r="AT40">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU40">
         <v>1.02</v>
@@ -8713,7 +8734,7 @@
         <v>106</v>
       </c>
       <c r="P41" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -8800,7 +8821,7 @@
         <v>0</v>
       </c>
       <c r="AS41">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT41">
         <v>0.33</v>
@@ -8991,7 +9012,7 @@
         <v>1.5</v>
       </c>
       <c r="AS42">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT42">
         <v>1</v>
@@ -9095,7 +9116,7 @@
         <v>108</v>
       </c>
       <c r="P43" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q43">
         <v>-1</v>
@@ -9182,10 +9203,10 @@
         <v>1.5</v>
       </c>
       <c r="AS43">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT43">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU43">
         <v>0</v>
@@ -9286,7 +9307,7 @@
         <v>109</v>
       </c>
       <c r="P44" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9373,10 +9394,10 @@
         <v>2.33</v>
       </c>
       <c r="AS44">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AT44">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AU44">
         <v>1.56</v>
@@ -9668,7 +9689,7 @@
         <v>111</v>
       </c>
       <c r="P46" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -9755,7 +9776,7 @@
         <v>1.33</v>
       </c>
       <c r="AS46">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AT46">
         <v>0.8</v>
@@ -10050,7 +10071,7 @@
         <v>113</v>
       </c>
       <c r="P48" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q48">
         <v>7</v>
@@ -10241,7 +10262,7 @@
         <v>114</v>
       </c>
       <c r="P49" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q49">
         <v>8</v>
@@ -10623,7 +10644,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q51">
         <v>3</v>
@@ -10713,7 +10734,7 @@
         <v>1.33</v>
       </c>
       <c r="AT51">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU51">
         <v>1.27</v>
@@ -10814,7 +10835,7 @@
         <v>117</v>
       </c>
       <c r="P52" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q52">
         <v>9</v>
@@ -10904,7 +10925,7 @@
         <v>1</v>
       </c>
       <c r="AT52">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU52">
         <v>1.21</v>
@@ -11005,7 +11026,7 @@
         <v>118</v>
       </c>
       <c r="P53" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -11095,7 +11116,7 @@
         <v>1.56</v>
       </c>
       <c r="AT53">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU53">
         <v>1</v>
@@ -11196,7 +11217,7 @@
         <v>119</v>
       </c>
       <c r="P54" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11283,10 +11304,10 @@
         <v>2</v>
       </c>
       <c r="AS54">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT54">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU54">
         <v>1.91</v>
@@ -11474,10 +11495,10 @@
         <v>2</v>
       </c>
       <c r="AS55">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT55">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU55">
         <v>0</v>
@@ -11578,7 +11599,7 @@
         <v>120</v>
       </c>
       <c r="P56" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q56">
         <v>11</v>
@@ -11665,7 +11686,7 @@
         <v>2</v>
       </c>
       <c r="AS56">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT56">
         <v>1.9</v>
@@ -11769,7 +11790,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -11856,10 +11877,10 @@
         <v>1</v>
       </c>
       <c r="AS57">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT57">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU57">
         <v>1.49</v>
@@ -12047,10 +12068,10 @@
         <v>2</v>
       </c>
       <c r="AS58">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT58">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU58">
         <v>1.12</v>
@@ -12342,7 +12363,7 @@
         <v>123</v>
       </c>
       <c r="P60" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q60">
         <v>5</v>
@@ -12429,7 +12450,7 @@
         <v>1</v>
       </c>
       <c r="AS60">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT60">
         <v>0.8</v>
@@ -12533,7 +12554,7 @@
         <v>124</v>
       </c>
       <c r="P61" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q61">
         <v>12</v>
@@ -12814,7 +12835,7 @@
         <v>2.1</v>
       </c>
       <c r="AT62">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU62">
         <v>1.47</v>
@@ -13005,7 +13026,7 @@
         <v>0.67</v>
       </c>
       <c r="AT63">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU63">
         <v>1.05</v>
@@ -13384,7 +13405,7 @@
         <v>1</v>
       </c>
       <c r="AS65">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AT65">
         <v>0.89</v>
@@ -13488,7 +13509,7 @@
         <v>82</v>
       </c>
       <c r="P66" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -13578,7 +13599,7 @@
         <v>1</v>
       </c>
       <c r="AT66">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU66">
         <v>1.23</v>
@@ -13769,7 +13790,7 @@
         <v>1.56</v>
       </c>
       <c r="AT67">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU67">
         <v>1.16</v>
@@ -13960,7 +13981,7 @@
         <v>1.33</v>
       </c>
       <c r="AT68">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU68">
         <v>1.32</v>
@@ -14148,7 +14169,7 @@
         <v>1.5</v>
       </c>
       <c r="AS69">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT69">
         <v>1.78</v>
@@ -14339,10 +14360,10 @@
         <v>1.5</v>
       </c>
       <c r="AS70">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT70">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU70">
         <v>1.07</v>
@@ -14530,7 +14551,7 @@
         <v>1.8</v>
       </c>
       <c r="AS71">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT71">
         <v>1.9</v>
@@ -14721,10 +14742,10 @@
         <v>1</v>
       </c>
       <c r="AS72">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT72">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU72">
         <v>0</v>
@@ -14825,7 +14846,7 @@
         <v>82</v>
       </c>
       <c r="P73" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q73">
         <v>6</v>
@@ -14915,7 +14936,7 @@
         <v>0.67</v>
       </c>
       <c r="AT73">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU73">
         <v>1.27</v>
@@ -15103,7 +15124,7 @@
         <v>0.8</v>
       </c>
       <c r="AS74">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT74">
         <v>0.8</v>
@@ -15488,7 +15509,7 @@
         <v>1.89</v>
       </c>
       <c r="AT76">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU76">
         <v>1.51</v>
@@ -15589,7 +15610,7 @@
         <v>134</v>
       </c>
       <c r="P77" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q77">
         <v>2</v>
@@ -15679,7 +15700,7 @@
         <v>2.1</v>
       </c>
       <c r="AT77">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU77">
         <v>1.34</v>
@@ -15867,7 +15888,7 @@
         <v>0.2</v>
       </c>
       <c r="AS78">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AT78">
         <v>0.33</v>
@@ -16058,7 +16079,7 @@
         <v>0.6</v>
       </c>
       <c r="AS79">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT79">
         <v>1</v>
@@ -16162,7 +16183,7 @@
         <v>82</v>
       </c>
       <c r="P80" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16443,7 +16464,7 @@
         <v>0.67</v>
       </c>
       <c r="AT81">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU81">
         <v>1.05</v>
@@ -16634,7 +16655,7 @@
         <v>1.56</v>
       </c>
       <c r="AT82">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU82">
         <v>1.27</v>
@@ -16735,7 +16756,7 @@
         <v>137</v>
       </c>
       <c r="P83" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q83">
         <v>3</v>
@@ -16822,7 +16843,7 @@
         <v>2</v>
       </c>
       <c r="AS83">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT83">
         <v>1.9</v>
@@ -17013,10 +17034,10 @@
         <v>1.4</v>
       </c>
       <c r="AS84">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT84">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU84">
         <v>0</v>
@@ -17207,7 +17228,7 @@
         <v>1.33</v>
       </c>
       <c r="AT85">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU85">
         <v>1.26</v>
@@ -17308,7 +17329,7 @@
         <v>82</v>
       </c>
       <c r="P86" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -17395,7 +17416,7 @@
         <v>0.8</v>
       </c>
       <c r="AS86">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT86">
         <v>0.89</v>
@@ -17499,7 +17520,7 @@
         <v>82</v>
       </c>
       <c r="P87" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q87">
         <v>8</v>
@@ -17586,10 +17607,10 @@
         <v>1.5</v>
       </c>
       <c r="AS87">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AT87">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU87">
         <v>1.85</v>
@@ -17690,7 +17711,7 @@
         <v>82</v>
       </c>
       <c r="P88" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q88">
         <v>6</v>
@@ -17780,7 +17801,7 @@
         <v>1.89</v>
       </c>
       <c r="AT88">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU88">
         <v>1.5</v>
@@ -17968,7 +17989,7 @@
         <v>0.17</v>
       </c>
       <c r="AS89">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT89">
         <v>0.33</v>
@@ -18162,7 +18183,7 @@
         <v>1.8</v>
       </c>
       <c r="AT90">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU90">
         <v>1.44</v>
@@ -18263,7 +18284,7 @@
         <v>139</v>
       </c>
       <c r="P91" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q91">
         <v>2</v>
@@ -18350,7 +18371,7 @@
         <v>0.67</v>
       </c>
       <c r="AS91">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT91">
         <v>0.8</v>
@@ -18544,7 +18565,7 @@
         <v>0.67</v>
       </c>
       <c r="AT92">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU92">
         <v>1.25</v>
@@ -18645,7 +18666,7 @@
         <v>140</v>
       </c>
       <c r="P93" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -18732,7 +18753,7 @@
         <v>0.83</v>
       </c>
       <c r="AS93">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT93">
         <v>0.67</v>
@@ -18836,7 +18857,7 @@
         <v>82</v>
       </c>
       <c r="P94" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -19027,7 +19048,7 @@
         <v>82</v>
       </c>
       <c r="P95" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -19308,7 +19329,7 @@
         <v>0.67</v>
       </c>
       <c r="AT96">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU96">
         <v>1.05</v>
@@ -19409,7 +19430,7 @@
         <v>141</v>
       </c>
       <c r="P97" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -19690,7 +19711,7 @@
         <v>2.1</v>
       </c>
       <c r="AT98">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU98">
         <v>1.38</v>
@@ -19878,10 +19899,10 @@
         <v>1.17</v>
       </c>
       <c r="AS99">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT99">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU99">
         <v>0</v>
@@ -20069,7 +20090,7 @@
         <v>1.17</v>
       </c>
       <c r="AS100">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT100">
         <v>0.89</v>
@@ -20173,7 +20194,7 @@
         <v>143</v>
       </c>
       <c r="P101" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q101">
         <v>11</v>
@@ -20260,10 +20281,10 @@
         <v>1.29</v>
       </c>
       <c r="AS101">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AT101">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU101">
         <v>1.76</v>
@@ -20454,7 +20475,7 @@
         <v>1.8</v>
       </c>
       <c r="AT102">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU102">
         <v>1.44</v>
@@ -20555,7 +20576,7 @@
         <v>145</v>
       </c>
       <c r="P103" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q103">
         <v>2</v>
@@ -20642,7 +20663,7 @@
         <v>0.86</v>
       </c>
       <c r="AS103">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT103">
         <v>0.67</v>
@@ -20746,7 +20767,7 @@
         <v>146</v>
       </c>
       <c r="P104" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q104">
         <v>1</v>
@@ -20937,7 +20958,7 @@
         <v>147</v>
       </c>
       <c r="P105" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -21027,7 +21048,7 @@
         <v>1.89</v>
       </c>
       <c r="AT105">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU105">
         <v>1.55</v>
@@ -21215,10 +21236,10 @@
         <v>1.71</v>
       </c>
       <c r="AS106">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT106">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU106">
         <v>1.95</v>
@@ -21406,10 +21427,10 @@
         <v>1.71</v>
       </c>
       <c r="AS107">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT107">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU107">
         <v>1.71</v>
@@ -21510,7 +21531,7 @@
         <v>148</v>
       </c>
       <c r="P108" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q108">
         <v>1</v>
@@ -21701,7 +21722,7 @@
         <v>82</v>
       </c>
       <c r="P109" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q109">
         <v>1</v>
@@ -21791,7 +21812,7 @@
         <v>0.67</v>
       </c>
       <c r="AT109">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU109">
         <v>1.23</v>
@@ -21892,7 +21913,7 @@
         <v>82</v>
       </c>
       <c r="P110" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q110">
         <v>10</v>
@@ -22361,7 +22382,7 @@
         <v>0.29</v>
       </c>
       <c r="AS112">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT112">
         <v>0.33</v>
@@ -22743,10 +22764,10 @@
         <v>1.29</v>
       </c>
       <c r="AS114">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT114">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU114">
         <v>0</v>
@@ -22847,7 +22868,7 @@
         <v>82</v>
       </c>
       <c r="P115" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q115">
         <v>8</v>
@@ -22934,10 +22955,10 @@
         <v>0.88</v>
       </c>
       <c r="AS115">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AT115">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU115">
         <v>1.74</v>
@@ -23125,10 +23146,10 @@
         <v>1.63</v>
       </c>
       <c r="AS116">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT116">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU116">
         <v>1.16</v>
@@ -23229,7 +23250,7 @@
         <v>149</v>
       </c>
       <c r="P117" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q117">
         <v>6</v>
@@ -23316,7 +23337,7 @@
         <v>1</v>
       </c>
       <c r="AS117">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT117">
         <v>0.8</v>
@@ -23420,7 +23441,7 @@
         <v>150</v>
       </c>
       <c r="P118" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q118">
         <v>3</v>
@@ -23507,10 +23528,10 @@
         <v>1.13</v>
       </c>
       <c r="AS118">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT118">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU118">
         <v>1.75</v>
@@ -23701,7 +23722,7 @@
         <v>1.8</v>
       </c>
       <c r="AT119">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU119">
         <v>1.41</v>
@@ -23802,7 +23823,7 @@
         <v>152</v>
       </c>
       <c r="P120" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q120">
         <v>4</v>
@@ -23892,7 +23913,7 @@
         <v>1</v>
       </c>
       <c r="AT120">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU120">
         <v>1.06</v>
@@ -24080,10 +24101,10 @@
         <v>1.25</v>
       </c>
       <c r="AS121">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT121">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU121">
         <v>1.87</v>
@@ -24566,7 +24587,7 @@
         <v>82</v>
       </c>
       <c r="P124" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q124">
         <v>5</v>
@@ -25472,6 +25493,1343 @@
       </c>
       <c r="BK128">
         <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:63">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>6035632</v>
+      </c>
+      <c r="C129" t="s">
+        <v>63</v>
+      </c>
+      <c r="D129" t="s">
+        <v>64</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45135.79166666666</v>
+      </c>
+      <c r="F129">
+        <v>13</v>
+      </c>
+      <c r="G129" t="s">
+        <v>76</v>
+      </c>
+      <c r="H129" t="s">
+        <v>73</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>1</v>
+      </c>
+      <c r="M129">
+        <v>1</v>
+      </c>
+      <c r="N129">
+        <v>2</v>
+      </c>
+      <c r="O129" t="s">
+        <v>159</v>
+      </c>
+      <c r="P129" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q129">
+        <v>4</v>
+      </c>
+      <c r="R129">
+        <v>4</v>
+      </c>
+      <c r="S129">
+        <v>8</v>
+      </c>
+      <c r="T129">
+        <v>2.39</v>
+      </c>
+      <c r="U129">
+        <v>1.97</v>
+      </c>
+      <c r="V129">
+        <v>5.25</v>
+      </c>
+      <c r="W129">
+        <v>1.49</v>
+      </c>
+      <c r="X129">
+        <v>2.44</v>
+      </c>
+      <c r="Y129">
+        <v>3.34</v>
+      </c>
+      <c r="Z129">
+        <v>1.28</v>
+      </c>
+      <c r="AA129">
+        <v>8.9</v>
+      </c>
+      <c r="AB129">
+        <v>1.03</v>
+      </c>
+      <c r="AC129">
+        <v>1.8</v>
+      </c>
+      <c r="AD129">
+        <v>3.2</v>
+      </c>
+      <c r="AE129">
+        <v>4.2</v>
+      </c>
+      <c r="AF129">
+        <v>1.09</v>
+      </c>
+      <c r="AG129">
+        <v>6</v>
+      </c>
+      <c r="AH129">
+        <v>1.41</v>
+      </c>
+      <c r="AI129">
+        <v>2.6</v>
+      </c>
+      <c r="AJ129">
+        <v>2.34</v>
+      </c>
+      <c r="AK129">
+        <v>1.53</v>
+      </c>
+      <c r="AL129">
+        <v>2.1</v>
+      </c>
+      <c r="AM129">
+        <v>1.62</v>
+      </c>
+      <c r="AN129">
+        <v>1.16</v>
+      </c>
+      <c r="AO129">
+        <v>1.28</v>
+      </c>
+      <c r="AP129">
+        <v>1.93</v>
+      </c>
+      <c r="AQ129">
+        <v>1.67</v>
+      </c>
+      <c r="AR129">
+        <v>1.11</v>
+      </c>
+      <c r="AS129">
+        <v>1.6</v>
+      </c>
+      <c r="AT129">
+        <v>1.1</v>
+      </c>
+      <c r="AU129">
+        <v>1.74</v>
+      </c>
+      <c r="AV129">
+        <v>1.31</v>
+      </c>
+      <c r="AW129">
+        <v>3.05</v>
+      </c>
+      <c r="AX129">
+        <v>0</v>
+      </c>
+      <c r="AY129">
+        <v>0</v>
+      </c>
+      <c r="AZ129">
+        <v>0</v>
+      </c>
+      <c r="BA129">
+        <v>0</v>
+      </c>
+      <c r="BB129">
+        <v>0</v>
+      </c>
+      <c r="BC129">
+        <v>0</v>
+      </c>
+      <c r="BD129">
+        <v>0</v>
+      </c>
+      <c r="BE129">
+        <v>0</v>
+      </c>
+      <c r="BF129">
+        <v>5</v>
+      </c>
+      <c r="BG129">
+        <v>6</v>
+      </c>
+      <c r="BH129">
+        <v>6</v>
+      </c>
+      <c r="BI129">
+        <v>3</v>
+      </c>
+      <c r="BJ129">
+        <v>11</v>
+      </c>
+      <c r="BK129">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130" spans="1:63">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>6035631</v>
+      </c>
+      <c r="C130" t="s">
+        <v>63</v>
+      </c>
+      <c r="D130" t="s">
+        <v>64</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45136.41666666666</v>
+      </c>
+      <c r="F130">
+        <v>13</v>
+      </c>
+      <c r="G130" t="s">
+        <v>69</v>
+      </c>
+      <c r="H130" t="s">
+        <v>66</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>2</v>
+      </c>
+      <c r="K130">
+        <v>2</v>
+      </c>
+      <c r="L130">
+        <v>1</v>
+      </c>
+      <c r="M130">
+        <v>2</v>
+      </c>
+      <c r="N130">
+        <v>3</v>
+      </c>
+      <c r="O130" t="s">
+        <v>160</v>
+      </c>
+      <c r="P130" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q130">
+        <v>2</v>
+      </c>
+      <c r="R130">
+        <v>10</v>
+      </c>
+      <c r="S130">
+        <v>12</v>
+      </c>
+      <c r="T130">
+        <v>3.75</v>
+      </c>
+      <c r="U130">
+        <v>1.91</v>
+      </c>
+      <c r="V130">
+        <v>3.2</v>
+      </c>
+      <c r="W130">
+        <v>0</v>
+      </c>
+      <c r="X130">
+        <v>0</v>
+      </c>
+      <c r="Y130">
+        <v>0</v>
+      </c>
+      <c r="Z130">
+        <v>0</v>
+      </c>
+      <c r="AA130">
+        <v>0</v>
+      </c>
+      <c r="AB130">
+        <v>0</v>
+      </c>
+      <c r="AC130">
+        <v>2.92</v>
+      </c>
+      <c r="AD130">
+        <v>2.83</v>
+      </c>
+      <c r="AE130">
+        <v>2.2</v>
+      </c>
+      <c r="AF130">
+        <v>0</v>
+      </c>
+      <c r="AG130">
+        <v>0</v>
+      </c>
+      <c r="AH130">
+        <v>1.5</v>
+      </c>
+      <c r="AI130">
+        <v>2.5</v>
+      </c>
+      <c r="AJ130">
+        <v>2.34</v>
+      </c>
+      <c r="AK130">
+        <v>1.53</v>
+      </c>
+      <c r="AL130">
+        <v>0</v>
+      </c>
+      <c r="AM130">
+        <v>0</v>
+      </c>
+      <c r="AN130">
+        <v>0</v>
+      </c>
+      <c r="AO130">
+        <v>0</v>
+      </c>
+      <c r="AP130">
+        <v>0</v>
+      </c>
+      <c r="AQ130">
+        <v>0.89</v>
+      </c>
+      <c r="AR130">
+        <v>1.11</v>
+      </c>
+      <c r="AS130">
+        <v>0.8</v>
+      </c>
+      <c r="AT130">
+        <v>1.3</v>
+      </c>
+      <c r="AU130">
+        <v>1.19</v>
+      </c>
+      <c r="AV130">
+        <v>1.35</v>
+      </c>
+      <c r="AW130">
+        <v>2.54</v>
+      </c>
+      <c r="AX130">
+        <v>0</v>
+      </c>
+      <c r="AY130">
+        <v>0</v>
+      </c>
+      <c r="AZ130">
+        <v>0</v>
+      </c>
+      <c r="BA130">
+        <v>0</v>
+      </c>
+      <c r="BB130">
+        <v>0</v>
+      </c>
+      <c r="BC130">
+        <v>0</v>
+      </c>
+      <c r="BD130">
+        <v>0</v>
+      </c>
+      <c r="BE130">
+        <v>0</v>
+      </c>
+      <c r="BF130">
+        <v>4</v>
+      </c>
+      <c r="BG130">
+        <v>9</v>
+      </c>
+      <c r="BH130">
+        <v>3</v>
+      </c>
+      <c r="BI130">
+        <v>8</v>
+      </c>
+      <c r="BJ130">
+        <v>7</v>
+      </c>
+      <c r="BK130">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="131" spans="1:63">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>6035636</v>
+      </c>
+      <c r="C131" t="s">
+        <v>63</v>
+      </c>
+      <c r="D131" t="s">
+        <v>64</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45136.52083333334</v>
+      </c>
+      <c r="F131">
+        <v>13</v>
+      </c>
+      <c r="G131" t="s">
+        <v>74</v>
+      </c>
+      <c r="H131" t="s">
+        <v>67</v>
+      </c>
+      <c r="I131">
+        <v>1</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>1</v>
+      </c>
+      <c r="L131">
+        <v>1</v>
+      </c>
+      <c r="M131">
+        <v>0</v>
+      </c>
+      <c r="N131">
+        <v>1</v>
+      </c>
+      <c r="O131" t="s">
+        <v>121</v>
+      </c>
+      <c r="P131" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q131">
+        <v>5</v>
+      </c>
+      <c r="R131">
+        <v>6</v>
+      </c>
+      <c r="S131">
+        <v>11</v>
+      </c>
+      <c r="T131">
+        <v>2.88</v>
+      </c>
+      <c r="U131">
+        <v>1.91</v>
+      </c>
+      <c r="V131">
+        <v>4</v>
+      </c>
+      <c r="W131">
+        <v>1.48</v>
+      </c>
+      <c r="X131">
+        <v>2.34</v>
+      </c>
+      <c r="Y131">
+        <v>3.3</v>
+      </c>
+      <c r="Z131">
+        <v>1.29</v>
+      </c>
+      <c r="AA131">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AB131">
+        <v>1.03</v>
+      </c>
+      <c r="AC131">
+        <v>2.1</v>
+      </c>
+      <c r="AD131">
+        <v>3</v>
+      </c>
+      <c r="AE131">
+        <v>3.25</v>
+      </c>
+      <c r="AF131">
+        <v>1.05</v>
+      </c>
+      <c r="AG131">
+        <v>7.25</v>
+      </c>
+      <c r="AH131">
+        <v>1.42</v>
+      </c>
+      <c r="AI131">
+        <v>2.6</v>
+      </c>
+      <c r="AJ131">
+        <v>2.45</v>
+      </c>
+      <c r="AK131">
+        <v>1.49</v>
+      </c>
+      <c r="AL131">
+        <v>1.95</v>
+      </c>
+      <c r="AM131">
+        <v>1.74</v>
+      </c>
+      <c r="AN131">
+        <v>1.2</v>
+      </c>
+      <c r="AO131">
+        <v>1.28</v>
+      </c>
+      <c r="AP131">
+        <v>1.68</v>
+      </c>
+      <c r="AQ131">
+        <v>2.33</v>
+      </c>
+      <c r="AR131">
+        <v>1.11</v>
+      </c>
+      <c r="AS131">
+        <v>2.4</v>
+      </c>
+      <c r="AT131">
+        <v>1</v>
+      </c>
+      <c r="AU131">
+        <v>1.98</v>
+      </c>
+      <c r="AV131">
+        <v>1.7</v>
+      </c>
+      <c r="AW131">
+        <v>3.68</v>
+      </c>
+      <c r="AX131">
+        <v>0</v>
+      </c>
+      <c r="AY131">
+        <v>0</v>
+      </c>
+      <c r="AZ131">
+        <v>0</v>
+      </c>
+      <c r="BA131">
+        <v>0</v>
+      </c>
+      <c r="BB131">
+        <v>0</v>
+      </c>
+      <c r="BC131">
+        <v>0</v>
+      </c>
+      <c r="BD131">
+        <v>1.88</v>
+      </c>
+      <c r="BE131">
+        <v>0</v>
+      </c>
+      <c r="BF131">
+        <v>5</v>
+      </c>
+      <c r="BG131">
+        <v>2</v>
+      </c>
+      <c r="BH131">
+        <v>3</v>
+      </c>
+      <c r="BI131">
+        <v>6</v>
+      </c>
+      <c r="BJ131">
+        <v>8</v>
+      </c>
+      <c r="BK131">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:63">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>6035633</v>
+      </c>
+      <c r="C132" t="s">
+        <v>63</v>
+      </c>
+      <c r="D132" t="s">
+        <v>64</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45136.625</v>
+      </c>
+      <c r="F132">
+        <v>13</v>
+      </c>
+      <c r="G132" t="s">
+        <v>71</v>
+      </c>
+      <c r="H132" t="s">
+        <v>68</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132">
+        <v>1</v>
+      </c>
+      <c r="M132">
+        <v>2</v>
+      </c>
+      <c r="N132">
+        <v>3</v>
+      </c>
+      <c r="O132" t="s">
+        <v>161</v>
+      </c>
+      <c r="P132" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q132">
+        <v>4</v>
+      </c>
+      <c r="R132">
+        <v>3</v>
+      </c>
+      <c r="S132">
+        <v>7</v>
+      </c>
+      <c r="T132">
+        <v>2.85</v>
+      </c>
+      <c r="U132">
+        <v>1.83</v>
+      </c>
+      <c r="V132">
+        <v>3.75</v>
+      </c>
+      <c r="W132">
+        <v>1.47</v>
+      </c>
+      <c r="X132">
+        <v>2.29</v>
+      </c>
+      <c r="Y132">
+        <v>3.34</v>
+      </c>
+      <c r="Z132">
+        <v>1.28</v>
+      </c>
+      <c r="AA132">
+        <v>9.1</v>
+      </c>
+      <c r="AB132">
+        <v>1.03</v>
+      </c>
+      <c r="AC132">
+        <v>2.21</v>
+      </c>
+      <c r="AD132">
+        <v>2.95</v>
+      </c>
+      <c r="AE132">
+        <v>3.15</v>
+      </c>
+      <c r="AF132">
+        <v>1.03</v>
+      </c>
+      <c r="AG132">
+        <v>7.5</v>
+      </c>
+      <c r="AH132">
+        <v>1.39</v>
+      </c>
+      <c r="AI132">
+        <v>2.55</v>
+      </c>
+      <c r="AJ132">
+        <v>2.3</v>
+      </c>
+      <c r="AK132">
+        <v>1.48</v>
+      </c>
+      <c r="AL132">
+        <v>1.9</v>
+      </c>
+      <c r="AM132">
+        <v>1.71</v>
+      </c>
+      <c r="AN132">
+        <v>1.27</v>
+      </c>
+      <c r="AO132">
+        <v>1.27</v>
+      </c>
+      <c r="AP132">
+        <v>1.5</v>
+      </c>
+      <c r="AQ132">
+        <v>2.33</v>
+      </c>
+      <c r="AR132">
+        <v>2.13</v>
+      </c>
+      <c r="AS132">
+        <v>2.1</v>
+      </c>
+      <c r="AT132">
+        <v>2.22</v>
+      </c>
+      <c r="AU132">
+        <v>1.75</v>
+      </c>
+      <c r="AV132">
+        <v>1.38</v>
+      </c>
+      <c r="AW132">
+        <v>3.13</v>
+      </c>
+      <c r="AX132">
+        <v>0</v>
+      </c>
+      <c r="AY132">
+        <v>0</v>
+      </c>
+      <c r="AZ132">
+        <v>0</v>
+      </c>
+      <c r="BA132">
+        <v>0</v>
+      </c>
+      <c r="BB132">
+        <v>0</v>
+      </c>
+      <c r="BC132">
+        <v>0</v>
+      </c>
+      <c r="BD132">
+        <v>0</v>
+      </c>
+      <c r="BE132">
+        <v>0</v>
+      </c>
+      <c r="BF132">
+        <v>4</v>
+      </c>
+      <c r="BG132">
+        <v>7</v>
+      </c>
+      <c r="BH132">
+        <v>2</v>
+      </c>
+      <c r="BI132">
+        <v>3</v>
+      </c>
+      <c r="BJ132">
+        <v>6</v>
+      </c>
+      <c r="BK132">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:63">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>6035635</v>
+      </c>
+      <c r="C133" t="s">
+        <v>63</v>
+      </c>
+      <c r="D133" t="s">
+        <v>64</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45137.45833333334</v>
+      </c>
+      <c r="F133">
+        <v>13</v>
+      </c>
+      <c r="G133" t="s">
+        <v>70</v>
+      </c>
+      <c r="H133" t="s">
+        <v>78</v>
+      </c>
+      <c r="I133">
+        <v>1</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>1</v>
+      </c>
+      <c r="L133">
+        <v>1</v>
+      </c>
+      <c r="M133">
+        <v>1</v>
+      </c>
+      <c r="N133">
+        <v>2</v>
+      </c>
+      <c r="O133" t="s">
+        <v>125</v>
+      </c>
+      <c r="P133" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q133">
+        <v>1</v>
+      </c>
+      <c r="R133">
+        <v>3</v>
+      </c>
+      <c r="S133">
+        <v>4</v>
+      </c>
+      <c r="T133">
+        <v>3.7</v>
+      </c>
+      <c r="U133">
+        <v>1.82</v>
+      </c>
+      <c r="V133">
+        <v>3.36</v>
+      </c>
+      <c r="W133">
+        <v>1.6</v>
+      </c>
+      <c r="X133">
+        <v>2.13</v>
+      </c>
+      <c r="Y133">
+        <v>3.84</v>
+      </c>
+      <c r="Z133">
+        <v>1.22</v>
+      </c>
+      <c r="AA133">
+        <v>10.5</v>
+      </c>
+      <c r="AB133">
+        <v>1.01</v>
+      </c>
+      <c r="AC133">
+        <v>2.75</v>
+      </c>
+      <c r="AD133">
+        <v>2.88</v>
+      </c>
+      <c r="AE133">
+        <v>2.6</v>
+      </c>
+      <c r="AF133">
+        <v>1.09</v>
+      </c>
+      <c r="AG133">
+        <v>5.8</v>
+      </c>
+      <c r="AH133">
+        <v>1.56</v>
+      </c>
+      <c r="AI133">
+        <v>2.28</v>
+      </c>
+      <c r="AJ133">
+        <v>2.68</v>
+      </c>
+      <c r="AK133">
+        <v>1.32</v>
+      </c>
+      <c r="AL133">
+        <v>2.17</v>
+      </c>
+      <c r="AM133">
+        <v>1.58</v>
+      </c>
+      <c r="AN133">
+        <v>1.43</v>
+      </c>
+      <c r="AO133">
+        <v>1.36</v>
+      </c>
+      <c r="AP133">
+        <v>1.38</v>
+      </c>
+      <c r="AQ133">
+        <v>1</v>
+      </c>
+      <c r="AR133">
+        <v>1.33</v>
+      </c>
+      <c r="AS133">
+        <v>1</v>
+      </c>
+      <c r="AT133">
+        <v>1.3</v>
+      </c>
+      <c r="AU133">
+        <v>1.14</v>
+      </c>
+      <c r="AV133">
+        <v>1.1</v>
+      </c>
+      <c r="AW133">
+        <v>2.24</v>
+      </c>
+      <c r="AX133">
+        <v>0</v>
+      </c>
+      <c r="AY133">
+        <v>0</v>
+      </c>
+      <c r="AZ133">
+        <v>0</v>
+      </c>
+      <c r="BA133">
+        <v>0</v>
+      </c>
+      <c r="BB133">
+        <v>0</v>
+      </c>
+      <c r="BC133">
+        <v>1.9</v>
+      </c>
+      <c r="BD133">
+        <v>0</v>
+      </c>
+      <c r="BE133">
+        <v>0</v>
+      </c>
+      <c r="BF133">
+        <v>5</v>
+      </c>
+      <c r="BG133">
+        <v>2</v>
+      </c>
+      <c r="BH133">
+        <v>1</v>
+      </c>
+      <c r="BI133">
+        <v>12</v>
+      </c>
+      <c r="BJ133">
+        <v>6</v>
+      </c>
+      <c r="BK133">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="134" spans="1:63">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>6035630</v>
+      </c>
+      <c r="C134" t="s">
+        <v>63</v>
+      </c>
+      <c r="D134" t="s">
+        <v>64</v>
+      </c>
+      <c r="E134" s="2">
+        <v>45137.5625</v>
+      </c>
+      <c r="F134">
+        <v>13</v>
+      </c>
+      <c r="G134" t="s">
+        <v>75</v>
+      </c>
+      <c r="H134" t="s">
+        <v>72</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+      <c r="L134">
+        <v>1</v>
+      </c>
+      <c r="M134">
+        <v>1</v>
+      </c>
+      <c r="N134">
+        <v>2</v>
+      </c>
+      <c r="O134" t="s">
+        <v>150</v>
+      </c>
+      <c r="P134" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q134">
+        <v>1</v>
+      </c>
+      <c r="R134">
+        <v>1</v>
+      </c>
+      <c r="S134">
+        <v>2</v>
+      </c>
+      <c r="T134">
+        <v>3.28</v>
+      </c>
+      <c r="U134">
+        <v>1.89</v>
+      </c>
+      <c r="V134">
+        <v>3.52</v>
+      </c>
+      <c r="W134">
+        <v>1.53</v>
+      </c>
+      <c r="X134">
+        <v>2.34</v>
+      </c>
+      <c r="Y134">
+        <v>3.48</v>
+      </c>
+      <c r="Z134">
+        <v>1.26</v>
+      </c>
+      <c r="AA134">
+        <v>9.6</v>
+      </c>
+      <c r="AB134">
+        <v>1.02</v>
+      </c>
+      <c r="AC134">
+        <v>2.52</v>
+      </c>
+      <c r="AD134">
+        <v>2.78</v>
+      </c>
+      <c r="AE134">
+        <v>2.61</v>
+      </c>
+      <c r="AF134">
+        <v>1.09</v>
+      </c>
+      <c r="AG134">
+        <v>7.25</v>
+      </c>
+      <c r="AH134">
+        <v>1.44</v>
+      </c>
+      <c r="AI134">
+        <v>2.4</v>
+      </c>
+      <c r="AJ134">
+        <v>2.47</v>
+      </c>
+      <c r="AK134">
+        <v>1.48</v>
+      </c>
+      <c r="AL134">
+        <v>2.1</v>
+      </c>
+      <c r="AM134">
+        <v>1.68</v>
+      </c>
+      <c r="AN134">
+        <v>1.4</v>
+      </c>
+      <c r="AO134">
+        <v>1.35</v>
+      </c>
+      <c r="AP134">
+        <v>1.45</v>
+      </c>
+      <c r="AQ134">
+        <v>1.89</v>
+      </c>
+      <c r="AR134">
+        <v>1.56</v>
+      </c>
+      <c r="AS134">
+        <v>1.8</v>
+      </c>
+      <c r="AT134">
+        <v>1.5</v>
+      </c>
+      <c r="AU134">
+        <v>1.28</v>
+      </c>
+      <c r="AV134">
+        <v>1.21</v>
+      </c>
+      <c r="AW134">
+        <v>2.49</v>
+      </c>
+      <c r="AX134">
+        <v>0</v>
+      </c>
+      <c r="AY134">
+        <v>0</v>
+      </c>
+      <c r="AZ134">
+        <v>0</v>
+      </c>
+      <c r="BA134">
+        <v>0</v>
+      </c>
+      <c r="BB134">
+        <v>0</v>
+      </c>
+      <c r="BC134">
+        <v>0</v>
+      </c>
+      <c r="BD134">
+        <v>0</v>
+      </c>
+      <c r="BE134">
+        <v>0</v>
+      </c>
+      <c r="BF134">
+        <v>5</v>
+      </c>
+      <c r="BG134">
+        <v>5</v>
+      </c>
+      <c r="BH134">
+        <v>1</v>
+      </c>
+      <c r="BI134">
+        <v>3</v>
+      </c>
+      <c r="BJ134">
+        <v>6</v>
+      </c>
+      <c r="BK134">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:63">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>6035634</v>
+      </c>
+      <c r="C135" t="s">
+        <v>63</v>
+      </c>
+      <c r="D135" t="s">
+        <v>64</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45137.625</v>
+      </c>
+      <c r="F135">
+        <v>13</v>
+      </c>
+      <c r="G135" t="s">
+        <v>77</v>
+      </c>
+      <c r="H135" t="s">
+        <v>65</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <v>5</v>
+      </c>
+      <c r="M135">
+        <v>2</v>
+      </c>
+      <c r="N135">
+        <v>7</v>
+      </c>
+      <c r="O135" t="s">
+        <v>162</v>
+      </c>
+      <c r="P135" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q135">
+        <v>-1</v>
+      </c>
+      <c r="R135">
+        <v>-1</v>
+      </c>
+      <c r="S135">
+        <v>-1</v>
+      </c>
+      <c r="T135">
+        <v>0</v>
+      </c>
+      <c r="U135">
+        <v>0</v>
+      </c>
+      <c r="V135">
+        <v>0</v>
+      </c>
+      <c r="W135">
+        <v>0</v>
+      </c>
+      <c r="X135">
+        <v>0</v>
+      </c>
+      <c r="Y135">
+        <v>0</v>
+      </c>
+      <c r="Z135">
+        <v>0</v>
+      </c>
+      <c r="AA135">
+        <v>0</v>
+      </c>
+      <c r="AB135">
+        <v>0</v>
+      </c>
+      <c r="AC135">
+        <v>3.1</v>
+      </c>
+      <c r="AD135">
+        <v>3</v>
+      </c>
+      <c r="AE135">
+        <v>2.15</v>
+      </c>
+      <c r="AF135">
+        <v>0</v>
+      </c>
+      <c r="AG135">
+        <v>0</v>
+      </c>
+      <c r="AH135">
+        <v>0</v>
+      </c>
+      <c r="AI135">
+        <v>0</v>
+      </c>
+      <c r="AJ135">
+        <v>2.25</v>
+      </c>
+      <c r="AK135">
+        <v>1.6</v>
+      </c>
+      <c r="AL135">
+        <v>0</v>
+      </c>
+      <c r="AM135">
+        <v>0</v>
+      </c>
+      <c r="AN135">
+        <v>0</v>
+      </c>
+      <c r="AO135">
+        <v>0</v>
+      </c>
+      <c r="AP135">
+        <v>0</v>
+      </c>
+      <c r="AQ135">
+        <v>1.38</v>
+      </c>
+      <c r="AR135">
+        <v>1.67</v>
+      </c>
+      <c r="AS135">
+        <v>1.56</v>
+      </c>
+      <c r="AT135">
+        <v>1.5</v>
+      </c>
+      <c r="AU135">
+        <v>0</v>
+      </c>
+      <c r="AV135">
+        <v>1.33</v>
+      </c>
+      <c r="AW135">
+        <v>1.33</v>
+      </c>
+      <c r="AX135">
+        <v>0</v>
+      </c>
+      <c r="AY135">
+        <v>0</v>
+      </c>
+      <c r="AZ135">
+        <v>0</v>
+      </c>
+      <c r="BA135">
+        <v>0</v>
+      </c>
+      <c r="BB135">
+        <v>0</v>
+      </c>
+      <c r="BC135">
+        <v>0</v>
+      </c>
+      <c r="BD135">
+        <v>0</v>
+      </c>
+      <c r="BE135">
+        <v>0</v>
+      </c>
+      <c r="BF135">
+        <v>-1</v>
+      </c>
+      <c r="BG135">
+        <v>-1</v>
+      </c>
+      <c r="BH135">
+        <v>-1</v>
+      </c>
+      <c r="BI135">
+        <v>-1</v>
+      </c>
+      <c r="BJ135">
+        <v>-1</v>
+      </c>
+      <c r="BK135">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
